--- a/ennusteet_excel/sensitiivisyys/korkea_nettomuutto_ennusteet.xlsx
+++ b/ennusteet_excel/sensitiivisyys/korkea_nettomuutto_ennusteet.xlsx
@@ -553,621 +553,639 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>999547.9</v>
+        <v>1004037</v>
       </c>
       <c r="D3" t="n">
-        <v>1009336.6</v>
+        <v>1004037</v>
       </c>
       <c r="E3" t="n">
-        <v>1001702</v>
+        <v>1004037</v>
       </c>
       <c r="F3" t="n">
-        <v>1006759.75</v>
+        <v>1004037</v>
       </c>
       <c r="G3" t="n">
-        <v>1004119</v>
+        <v>1004037</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>984739</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1005068.6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>988931.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>999630</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>994131.5</v>
-      </c>
-      <c r="H4"/>
+        <v>1004037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>968034.8</v>
+        <v>988851.5</v>
       </c>
       <c r="D5" t="n">
-        <v>999862.3</v>
+        <v>1000058.8</v>
       </c>
       <c r="E5" t="n">
-        <v>974839</v>
+        <v>991351.5</v>
       </c>
       <c r="F5" t="n">
-        <v>991867.5</v>
+        <v>997171.5</v>
       </c>
       <c r="G5" t="n">
-        <v>983172</v>
+        <v>994090</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>950834.7</v>
+        <v>972173.3</v>
       </c>
       <c r="D6" t="n">
-        <v>995587.4</v>
+        <v>994980.9</v>
       </c>
       <c r="E6" t="n">
-        <v>960546.75</v>
+        <v>977184.75</v>
       </c>
       <c r="F6" t="n">
-        <v>984769.5</v>
+        <v>989702.75</v>
       </c>
       <c r="G6" t="n">
-        <v>972131.5</v>
+        <v>983113.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>934514.3</v>
+        <v>954437.3</v>
       </c>
       <c r="D7" t="n">
-        <v>992802.4</v>
+        <v>990272.5</v>
       </c>
       <c r="E7" t="n">
-        <v>947702.25</v>
+        <v>962180</v>
       </c>
       <c r="F7" t="n">
-        <v>979797.75</v>
+        <v>981602.75</v>
       </c>
       <c r="G7" t="n">
-        <v>963369.5</v>
+        <v>971668</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>919913.3</v>
+        <v>937083.7</v>
       </c>
       <c r="D8" t="n">
-        <v>991718.6</v>
+        <v>987229.2</v>
       </c>
       <c r="E8" t="n">
-        <v>935560</v>
+        <v>948404</v>
       </c>
       <c r="F8" t="n">
-        <v>974294.5</v>
+        <v>975169.5</v>
       </c>
       <c r="G8" t="n">
-        <v>955031</v>
+        <v>961861.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>904248.6</v>
+        <v>920574.4</v>
       </c>
       <c r="D9" t="n">
-        <v>993268.8</v>
+        <v>985322.3</v>
       </c>
       <c r="E9" t="n">
-        <v>925299.25</v>
+        <v>935788.5</v>
       </c>
       <c r="F9" t="n">
-        <v>972671.5</v>
+        <v>970248.25</v>
       </c>
       <c r="G9" t="n">
-        <v>948764</v>
+        <v>952475.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>892278</v>
+        <v>905787.6</v>
       </c>
       <c r="D10" t="n">
-        <v>997851.2</v>
+        <v>985500</v>
       </c>
       <c r="E10" t="n">
-        <v>917734.25</v>
+        <v>924479.5</v>
       </c>
       <c r="F10" t="n">
-        <v>972401.5</v>
+        <v>967336</v>
       </c>
       <c r="G10" t="n">
-        <v>944381</v>
+        <v>946037.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>882201.4</v>
+        <v>891587.8</v>
       </c>
       <c r="D11" t="n">
-        <v>1004981.3</v>
+        <v>989381.1</v>
       </c>
       <c r="E11" t="n">
-        <v>912790.5</v>
+        <v>916240.5</v>
       </c>
       <c r="F11" t="n">
-        <v>976959.5</v>
+        <v>966239.75</v>
       </c>
       <c r="G11" t="n">
-        <v>943655.5</v>
+        <v>940392</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>875768.8</v>
+        <v>881631.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1017423</v>
+        <v>994979.7</v>
       </c>
       <c r="E12" t="n">
-        <v>910893.25</v>
+        <v>909008.25</v>
       </c>
       <c r="F12" t="n">
-        <v>985391.75</v>
+        <v>969522.25</v>
       </c>
       <c r="G12" t="n">
-        <v>947047</v>
+        <v>937954.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>872771.9</v>
+        <v>874792.4</v>
       </c>
       <c r="D13" t="n">
-        <v>1035231.4</v>
+        <v>1005679.8</v>
       </c>
       <c r="E13" t="n">
-        <v>914294.25</v>
+        <v>906224</v>
       </c>
       <c r="F13" t="n">
-        <v>998232</v>
+        <v>977293</v>
       </c>
       <c r="G13" t="n">
-        <v>954218</v>
+        <v>940783</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>873512.1</v>
+        <v>869842.9</v>
       </c>
       <c r="D14" t="n">
-        <v>1055456</v>
+        <v>1023304.8</v>
       </c>
       <c r="E14" t="n">
-        <v>920273.75</v>
+        <v>909406.75</v>
       </c>
       <c r="F14" t="n">
-        <v>1014257.5</v>
+        <v>988999.75</v>
       </c>
       <c r="G14" t="n">
-        <v>965707</v>
+        <v>947029</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>876067.9</v>
+        <v>868609.9</v>
       </c>
       <c r="D15" t="n">
-        <v>1079516.9</v>
+        <v>1043596.4</v>
       </c>
       <c r="E15" t="n">
-        <v>929276.75</v>
+        <v>913392.25</v>
       </c>
       <c r="F15" t="n">
-        <v>1032560</v>
+        <v>1002790.5</v>
       </c>
       <c r="G15" t="n">
-        <v>979950</v>
+        <v>957134</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>880927.2</v>
+        <v>871939</v>
       </c>
       <c r="D16" t="n">
-        <v>1106463.1</v>
+        <v>1065505.2</v>
       </c>
       <c r="E16" t="n">
-        <v>937039.75</v>
+        <v>921151.75</v>
       </c>
       <c r="F16" t="n">
-        <v>1049601.25</v>
+        <v>1019654.5</v>
       </c>
       <c r="G16" t="n">
-        <v>996137</v>
+        <v>970552</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>882689</v>
+        <v>875188.3</v>
       </c>
       <c r="D17" t="n">
-        <v>1129121.2</v>
+        <v>1088757.9</v>
       </c>
       <c r="E17" t="n">
-        <v>945046.75</v>
+        <v>929883.75</v>
       </c>
       <c r="F17" t="n">
-        <v>1067303</v>
+        <v>1035464</v>
       </c>
       <c r="G17" t="n">
-        <v>1009361</v>
+        <v>985708</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>888911.7</v>
+        <v>875612.9</v>
       </c>
       <c r="D18" t="n">
-        <v>1157370.8</v>
+        <v>1112450.4</v>
       </c>
       <c r="E18" t="n">
-        <v>957035</v>
+        <v>936478.5</v>
       </c>
       <c r="F18" t="n">
-        <v>1091739.25</v>
+        <v>1053610</v>
       </c>
       <c r="G18" t="n">
-        <v>1028525</v>
+        <v>998580.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>896504.4</v>
+        <v>883000.3</v>
       </c>
       <c r="D19" t="n">
-        <v>1192248.1</v>
+        <v>1143183.8</v>
       </c>
       <c r="E19" t="n">
-        <v>971633</v>
+        <v>947702</v>
       </c>
       <c r="F19" t="n">
-        <v>1119756</v>
+        <v>1077344.25</v>
       </c>
       <c r="G19" t="n">
-        <v>1049851.5</v>
+        <v>1017929.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>905119.6</v>
+        <v>889953.9</v>
       </c>
       <c r="D20" t="n">
-        <v>1224454.5</v>
+        <v>1174395.5</v>
       </c>
       <c r="E20" t="n">
-        <v>987154.75</v>
+        <v>962610.25</v>
       </c>
       <c r="F20" t="n">
-        <v>1145718</v>
+        <v>1105872</v>
       </c>
       <c r="G20" t="n">
-        <v>1071799.5</v>
+        <v>1037144.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>919161</v>
+        <v>900271.4</v>
       </c>
       <c r="D21" t="n">
-        <v>1252743.8</v>
+        <v>1208031.1</v>
       </c>
       <c r="E21" t="n">
-        <v>1002113.5</v>
+        <v>978146</v>
       </c>
       <c r="F21" t="n">
-        <v>1170265.5</v>
+        <v>1133076.5</v>
       </c>
       <c r="G21" t="n">
-        <v>1093441</v>
+        <v>1059653.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>924940.4</v>
+        <v>909245.4</v>
       </c>
       <c r="D22" t="n">
-        <v>1272793.1</v>
+        <v>1238679.6</v>
       </c>
       <c r="E22" t="n">
-        <v>1019066.5</v>
+        <v>991160</v>
       </c>
       <c r="F22" t="n">
-        <v>1191909.75</v>
+        <v>1157195.5</v>
       </c>
       <c r="G22" t="n">
-        <v>1113802</v>
+        <v>1081629.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>931239.1</v>
+        <v>915659.4</v>
       </c>
       <c r="D23" t="n">
-        <v>1301394.6</v>
+        <v>1259080.7</v>
       </c>
       <c r="E23" t="n">
-        <v>1033717.75</v>
+        <v>1008797.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1214705.5</v>
+        <v>1179123</v>
       </c>
       <c r="G23" t="n">
-        <v>1131411</v>
+        <v>1101432.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>943009.6</v>
+        <v>922223.6</v>
       </c>
       <c r="D24" t="n">
-        <v>1325741.5</v>
+        <v>1288041.9</v>
       </c>
       <c r="E24" t="n">
-        <v>1049794.75</v>
+        <v>1023421.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1238653.25</v>
+        <v>1202762.25</v>
       </c>
       <c r="G24" t="n">
-        <v>1150481</v>
+        <v>1120605</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>950254.3</v>
+        <v>934336</v>
       </c>
       <c r="D25" t="n">
-        <v>1349957.1</v>
+        <v>1312861.7</v>
       </c>
       <c r="E25" t="n">
-        <v>1060537.75</v>
+        <v>1040009.25</v>
       </c>
       <c r="F25" t="n">
-        <v>1261843</v>
+        <v>1227121.75</v>
       </c>
       <c r="G25" t="n">
-        <v>1167124.5</v>
+        <v>1139322</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>955612.8</v>
+        <v>942092.6</v>
       </c>
       <c r="D26" t="n">
-        <v>1371714.7</v>
+        <v>1337860.3</v>
       </c>
       <c r="E26" t="n">
-        <v>1068454.75</v>
+        <v>1051066</v>
       </c>
       <c r="F26" t="n">
-        <v>1279692.25</v>
+        <v>1250565</v>
       </c>
       <c r="G26" t="n">
-        <v>1182958</v>
+        <v>1157593</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>969527.5</v>
+        <v>948254.9</v>
       </c>
       <c r="D27" t="n">
-        <v>1390769.4</v>
+        <v>1360725.1</v>
       </c>
       <c r="E27" t="n">
-        <v>1081502</v>
+        <v>1060192.5</v>
       </c>
       <c r="F27" t="n">
-        <v>1296340.5</v>
+        <v>1269844.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1194679.5</v>
+        <v>1173068.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>979801.2</v>
+        <v>963215.9</v>
       </c>
       <c r="D28" t="n">
-        <v>1409863.4</v>
+        <v>1380424</v>
       </c>
       <c r="E28" t="n">
-        <v>1090145</v>
+        <v>1073588.75</v>
       </c>
       <c r="F28" t="n">
-        <v>1310160.25</v>
+        <v>1286757.5</v>
       </c>
       <c r="G28" t="n">
-        <v>1207714.5</v>
+        <v>1185093.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>973822.9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1401671.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1083240.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1301500</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1199261.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,621 +1240,639 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.16158067206499</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44266251740752</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="E3" t="n">
-        <v>1.22315352303706</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.36877574592261</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="G3" t="n">
-        <v>1.29306694722196</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.15061805603691</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.47093475507373</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.22156448069946</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.3886936710932</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.30039190961972</v>
-      </c>
-      <c r="H4"/>
+        <v>1.2780796334476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>1.12927778772515</v>
+        <v>1.15061805603691</v>
       </c>
       <c r="D5" t="n">
-        <v>1.48965411636352</v>
+        <v>1.47093475507373</v>
       </c>
       <c r="E5" t="n">
-        <v>1.21414429876089</v>
+        <v>1.22156448069946</v>
       </c>
       <c r="F5" t="n">
-        <v>1.40843480297687</v>
+        <v>1.3886936710932</v>
       </c>
       <c r="G5" t="n">
-        <v>1.30867174588539</v>
+        <v>1.30039190961972</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12100158240035</v>
+        <v>1.12927778772515</v>
       </c>
       <c r="D6" t="n">
-        <v>1.51282915087396</v>
+        <v>1.48965411636352</v>
       </c>
       <c r="E6" t="n">
-        <v>1.20382590404728</v>
+        <v>1.21414429876089</v>
       </c>
       <c r="F6" t="n">
-        <v>1.42299107832175</v>
+        <v>1.40843480297687</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32108022751372</v>
+        <v>1.30867174588539</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11666182387558</v>
+        <v>1.12100158240035</v>
       </c>
       <c r="D7" t="n">
-        <v>1.53087767011943</v>
+        <v>1.51282915087396</v>
       </c>
       <c r="E7" t="n">
-        <v>1.21417813226209</v>
+        <v>1.20382590404728</v>
       </c>
       <c r="F7" t="n">
-        <v>1.42973154462228</v>
+        <v>1.42299107832175</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32305283265772</v>
+        <v>1.32108022751372</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.11130299208843</v>
+        <v>1.11666182387558</v>
       </c>
       <c r="D8" t="n">
-        <v>1.54129695153765</v>
+        <v>1.53087767011943</v>
       </c>
       <c r="E8" t="n">
-        <v>1.21349624921232</v>
+        <v>1.21417813226209</v>
       </c>
       <c r="F8" t="n">
-        <v>1.44107404234682</v>
+        <v>1.42973154462228</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33637401233704</v>
+        <v>1.32305283265772</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.10344457905032</v>
+        <v>1.11130299208843</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56198231827718</v>
+        <v>1.54129695153765</v>
       </c>
       <c r="E9" t="n">
-        <v>1.21188119702286</v>
+        <v>1.21349624921232</v>
       </c>
       <c r="F9" t="n">
-        <v>1.45660316492537</v>
+        <v>1.44107404234682</v>
       </c>
       <c r="G9" t="n">
-        <v>1.33582991809635</v>
+        <v>1.33637401233704</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.10598500546352</v>
+        <v>1.10344457905032</v>
       </c>
       <c r="D10" t="n">
-        <v>1.57581331115355</v>
+        <v>1.56198231827718</v>
       </c>
       <c r="E10" t="n">
-        <v>1.21884373160442</v>
+        <v>1.21188119702286</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4694717553957</v>
+        <v>1.45660316492537</v>
       </c>
       <c r="G10" t="n">
-        <v>1.34368867167156</v>
+        <v>1.33582991809635</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>1.09646228050542</v>
+        <v>1.10598500546352</v>
       </c>
       <c r="D11" t="n">
-        <v>1.58241644167648</v>
+        <v>1.57581331115355</v>
       </c>
       <c r="E11" t="n">
-        <v>1.21888022290412</v>
+        <v>1.21884373160442</v>
       </c>
       <c r="F11" t="n">
-        <v>1.48204700427204</v>
+        <v>1.4694717553957</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34803103531925</v>
+        <v>1.34368867167156</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08528203880155</v>
+        <v>1.09646228050542</v>
       </c>
       <c r="D12" t="n">
-        <v>1.60242916438207</v>
+        <v>1.58241644167648</v>
       </c>
       <c r="E12" t="n">
-        <v>1.21658675787477</v>
+        <v>1.21888022290412</v>
       </c>
       <c r="F12" t="n">
-        <v>1.4882352856823</v>
+        <v>1.48204700427204</v>
       </c>
       <c r="G12" t="n">
-        <v>1.35598812753968</v>
+        <v>1.34803103531925</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1.07877487439865</v>
+        <v>1.08528203880155</v>
       </c>
       <c r="D13" t="n">
-        <v>1.61714292493226</v>
+        <v>1.60242916438207</v>
       </c>
       <c r="E13" t="n">
-        <v>1.21576592310236</v>
+        <v>1.21658675787477</v>
       </c>
       <c r="F13" t="n">
-        <v>1.49183388933846</v>
+        <v>1.4882352856823</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37171272680842</v>
+        <v>1.35598812753968</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0873248738124</v>
+        <v>1.07877487439865</v>
       </c>
       <c r="D14" t="n">
-        <v>1.63212213073084</v>
+        <v>1.61714292493226</v>
       </c>
       <c r="E14" t="n">
-        <v>1.22290400607251</v>
+        <v>1.21576592310236</v>
       </c>
       <c r="F14" t="n">
-        <v>1.509277253468</v>
+        <v>1.49183388933846</v>
       </c>
       <c r="G14" t="n">
-        <v>1.37509849231608</v>
+        <v>1.37171272680842</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>1.09146861917517</v>
+        <v>1.0873248738124</v>
       </c>
       <c r="D15" t="n">
-        <v>1.64158955209321</v>
+        <v>1.63212213073084</v>
       </c>
       <c r="E15" t="n">
-        <v>1.22517059710176</v>
+        <v>1.22290400607251</v>
       </c>
       <c r="F15" t="n">
-        <v>1.51705441790654</v>
+        <v>1.509277253468</v>
       </c>
       <c r="G15" t="n">
-        <v>1.38549494577113</v>
+        <v>1.37509849231608</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>1.08794836047519</v>
+        <v>1.09146861917517</v>
       </c>
       <c r="D16" t="n">
-        <v>1.64929444243715</v>
+        <v>1.64158955209321</v>
       </c>
       <c r="E16" t="n">
-        <v>1.23500757159733</v>
+        <v>1.22517059710176</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51935853517645</v>
+        <v>1.51705441790654</v>
       </c>
       <c r="G16" t="n">
-        <v>1.38648564374382</v>
+        <v>1.38549494577113</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>1.07585210226621</v>
+        <v>1.08794836047519</v>
       </c>
       <c r="D17" t="n">
-        <v>1.64809734565513</v>
+        <v>1.64929444243715</v>
       </c>
       <c r="E17" t="n">
-        <v>1.23135831599826</v>
+        <v>1.23500757159733</v>
       </c>
       <c r="F17" t="n">
-        <v>1.52945412903461</v>
+        <v>1.51935853517645</v>
       </c>
       <c r="G17" t="n">
-        <v>1.38807690796734</v>
+        <v>1.38648564374382</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>1.06705667312135</v>
+        <v>1.07585210226621</v>
       </c>
       <c r="D18" t="n">
-        <v>1.66443230644291</v>
+        <v>1.64809734565513</v>
       </c>
       <c r="E18" t="n">
-        <v>1.23418955308699</v>
+        <v>1.23135831599826</v>
       </c>
       <c r="F18" t="n">
-        <v>1.53497417961588</v>
+        <v>1.52945412903461</v>
       </c>
       <c r="G18" t="n">
-        <v>1.38845652773934</v>
+        <v>1.38807690796734</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>1.05873281063613</v>
+        <v>1.06705667312135</v>
       </c>
       <c r="D19" t="n">
-        <v>1.68115878611563</v>
+        <v>1.66443230644291</v>
       </c>
       <c r="E19" t="n">
-        <v>1.23191427823521</v>
+        <v>1.23418955308699</v>
       </c>
       <c r="F19" t="n">
-        <v>1.53906012997073</v>
+        <v>1.53497417961588</v>
       </c>
       <c r="G19" t="n">
-        <v>1.38905070105348</v>
+        <v>1.38845652773934</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1.07277079940008</v>
+        <v>1.05873281063613</v>
       </c>
       <c r="D20" t="n">
-        <v>1.69757635607091</v>
+        <v>1.68115878611563</v>
       </c>
       <c r="E20" t="n">
-        <v>1.23754196641202</v>
+        <v>1.23191427823521</v>
       </c>
       <c r="F20" t="n">
-        <v>1.54772204587026</v>
+        <v>1.53906012997073</v>
       </c>
       <c r="G20" t="n">
-        <v>1.40032458449159</v>
+        <v>1.38905070105348</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>1.07535212617163</v>
+        <v>1.07277079940008</v>
       </c>
       <c r="D21" t="n">
-        <v>1.71296499707748</v>
+        <v>1.69757635607091</v>
       </c>
       <c r="E21" t="n">
-        <v>1.2344204164291</v>
+        <v>1.23754196641202</v>
       </c>
       <c r="F21" t="n">
-        <v>1.55618756085112</v>
+        <v>1.54772204587026</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39945851846958</v>
+        <v>1.40032458449159</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>1.06411828107446</v>
+        <v>1.07535212617163</v>
       </c>
       <c r="D22" t="n">
-        <v>1.72038904190727</v>
+        <v>1.71296499707748</v>
       </c>
       <c r="E22" t="n">
-        <v>1.23459483375155</v>
+        <v>1.2344204164291</v>
       </c>
       <c r="F22" t="n">
-        <v>1.56181085237151</v>
+        <v>1.55618756085112</v>
       </c>
       <c r="G22" t="n">
-        <v>1.41054327797016</v>
+        <v>1.39945851846958</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>1.05769189110853</v>
+        <v>1.06411828107446</v>
       </c>
       <c r="D23" t="n">
-        <v>1.73149215896779</v>
+        <v>1.72038904190727</v>
       </c>
       <c r="E23" t="n">
-        <v>1.23531342553563</v>
+        <v>1.23459483375155</v>
       </c>
       <c r="F23" t="n">
-        <v>1.56166149822386</v>
+        <v>1.56181085237151</v>
       </c>
       <c r="G23" t="n">
-        <v>1.40843082698582</v>
+        <v>1.41054327797016</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>1.06674158357543</v>
+        <v>1.05769189110853</v>
       </c>
       <c r="D24" t="n">
-        <v>1.73332161013256</v>
+        <v>1.73149215896779</v>
       </c>
       <c r="E24" t="n">
-        <v>1.22952980193493</v>
+        <v>1.23531342553563</v>
       </c>
       <c r="F24" t="n">
-        <v>1.57172243656036</v>
+        <v>1.56166149822386</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41127679309632</v>
+        <v>1.40843082698582</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.04534524929615</v>
+        <v>1.06674158357543</v>
       </c>
       <c r="D25" t="n">
-        <v>1.73481469414601</v>
+        <v>1.73332161013256</v>
       </c>
       <c r="E25" t="n">
-        <v>1.24254609833418</v>
+        <v>1.22952980193493</v>
       </c>
       <c r="F25" t="n">
-        <v>1.57894754609896</v>
+        <v>1.57172243656036</v>
       </c>
       <c r="G25" t="n">
-        <v>1.41276728546054</v>
+        <v>1.41127679309632</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1.05145238932517</v>
+        <v>1.04534524929615</v>
       </c>
       <c r="D26" t="n">
-        <v>1.74293850539961</v>
+        <v>1.73481469414601</v>
       </c>
       <c r="E26" t="n">
-        <v>1.24369190096971</v>
+        <v>1.24254609833418</v>
       </c>
       <c r="F26" t="n">
-        <v>1.57957425373549</v>
+        <v>1.57894754609896</v>
       </c>
       <c r="G26" t="n">
-        <v>1.42193661462329</v>
+        <v>1.41276728546054</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05899206869517</v>
+        <v>1.05145238932517</v>
       </c>
       <c r="D27" t="n">
-        <v>1.74886133645298</v>
+        <v>1.74293850539961</v>
       </c>
       <c r="E27" t="n">
-        <v>1.24774071121993</v>
+        <v>1.24369190096971</v>
       </c>
       <c r="F27" t="n">
-        <v>1.59050566606348</v>
+        <v>1.57957425373549</v>
       </c>
       <c r="G27" t="n">
-        <v>1.42290232989069</v>
+        <v>1.42193661462329</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="n">
+        <v>1.05899206869517</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.74886133645298</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.24774071121993</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.59050566606348</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.42290232989069</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.05818232103186</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>1.73454789579819</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>1.24432542646672</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>1.59538716797686</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.42595283068202</v>
       </c>
-      <c r="H28"/>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,621 +1927,639 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176039567540235</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.177462559266632</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.176363080461585</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17711068945487</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.176707456557992</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.172141130870388</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.175116920622869</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.172745127487433</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.174309053193403</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.173512119488968</v>
-      </c>
-      <c r="H4"/>
+        <v>0.177488907352083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.167920461503806</v>
+        <v>0.173524794883131</v>
       </c>
       <c r="D5" t="n">
-        <v>0.172590117423338</v>
+        <v>0.175174884012344</v>
       </c>
       <c r="E5" t="n">
-        <v>0.168976034985568</v>
+        <v>0.173870106611658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.171499537793903</v>
+        <v>0.174748942479729</v>
       </c>
       <c r="G5" t="n">
-        <v>0.170235402359785</v>
+        <v>0.174322089581152</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.163811092602702</v>
+        <v>0.169366654388499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.170274797114833</v>
+        <v>0.172695432409897</v>
       </c>
       <c r="E6" t="n">
-        <v>0.165234126876928</v>
+        <v>0.170066239686527</v>
       </c>
       <c r="F6" t="n">
-        <v>0.168796253505117</v>
+        <v>0.171935844212284</v>
       </c>
       <c r="G6" t="n">
-        <v>0.16692442963494</v>
+        <v>0.171000723943557</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159806684463835</v>
+        <v>0.165055689619272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.168180380551935</v>
+        <v>0.170268475793235</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161770004773141</v>
+        <v>0.16623228375968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.166291794630065</v>
+        <v>0.169136498397141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.163920850871689</v>
+        <v>0.167646342533146</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.156025595489919</v>
+        <v>0.160982740036551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1663785607482</v>
+        <v>0.168134708300906</v>
       </c>
       <c r="E8" t="n">
-        <v>0.158401054246681</v>
+        <v>0.162588066546979</v>
       </c>
       <c r="F8" t="n">
-        <v>0.164088865233866</v>
+        <v>0.166573397329681</v>
       </c>
       <c r="G8" t="n">
-        <v>0.161161111215982</v>
+        <v>0.164529804279584</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.152545197049479</v>
+        <v>0.156931913405197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16503534882946</v>
+        <v>0.166185442193955</v>
       </c>
       <c r="E9" t="n">
-        <v>0.155351877654067</v>
+        <v>0.159091653130407</v>
       </c>
       <c r="F9" t="n">
-        <v>0.162309044070546</v>
+        <v>0.164224214674825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.15879626155287</v>
+        <v>0.161629431125589</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.149389943592669</v>
+        <v>0.153418215099652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.164098436837916</v>
+        <v>0.164749134129768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.152785932397348</v>
+        <v>0.1558885410191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.160903075816106</v>
+        <v>0.162237001991224</v>
       </c>
       <c r="G10" t="n">
-        <v>0.156769919846449</v>
+        <v>0.159038013610815</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.146650739251052</v>
+        <v>0.149913331514266</v>
       </c>
       <c r="D11" t="n">
-        <v>0.163697782053609</v>
+        <v>0.163585546946946</v>
       </c>
       <c r="E11" t="n">
-        <v>0.150819962450154</v>
+        <v>0.153202243175716</v>
       </c>
       <c r="F11" t="n">
-        <v>0.160033212966817</v>
+        <v>0.160721354424481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.155378907594708</v>
+        <v>0.15685197584711</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.144527168769492</v>
+        <v>0.147138752501472</v>
       </c>
       <c r="D12" t="n">
-        <v>0.164154447196765</v>
+        <v>0.162939331451422</v>
       </c>
       <c r="E12" t="n">
-        <v>0.149442667443388</v>
+        <v>0.151107584858655</v>
       </c>
       <c r="F12" t="n">
-        <v>0.159907430195999</v>
+        <v>0.159691832086558</v>
       </c>
       <c r="G12" t="n">
-        <v>0.15460685891186</v>
+        <v>0.155314328153798</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.143088886246574</v>
+        <v>0.144855741990752</v>
       </c>
       <c r="D13" t="n">
-        <v>0.165386184600275</v>
+        <v>0.163341449437351</v>
       </c>
       <c r="E13" t="n">
-        <v>0.148729564410894</v>
+        <v>0.149599776237703</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16031836553269</v>
+        <v>0.159380089775269</v>
       </c>
       <c r="G13" t="n">
-        <v>0.154348441125434</v>
+        <v>0.154298766751717</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.142123416280959</v>
+        <v>0.143215455583851</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167154134029526</v>
+        <v>0.164410946755998</v>
       </c>
       <c r="E14" t="n">
-        <v>0.148578058742742</v>
+        <v>0.14868521853376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.161328893897795</v>
+        <v>0.159616232376808</v>
       </c>
       <c r="G14" t="n">
-        <v>0.154898952106823</v>
+        <v>0.154020015614129</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.141649633006416</v>
+        <v>0.142106981229781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.169176101369658</v>
+        <v>0.166007559813734</v>
       </c>
       <c r="E15" t="n">
-        <v>0.14877507902019</v>
+        <v>0.148157925859938</v>
       </c>
       <c r="F15" t="n">
-        <v>0.162746089442246</v>
+        <v>0.160423423694384</v>
       </c>
       <c r="G15" t="n">
-        <v>0.155865468603064</v>
+        <v>0.154375559119855</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.141112128471058</v>
+        <v>0.14135434396799</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171242356628272</v>
+        <v>0.167952400435145</v>
       </c>
       <c r="E16" t="n">
-        <v>0.149089268546619</v>
+        <v>0.14845776496409</v>
       </c>
       <c r="F16" t="n">
-        <v>0.163853150099603</v>
+        <v>0.161717512322906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.15699256772247</v>
+        <v>0.155215888461258</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1405741690856</v>
+        <v>0.140919453745982</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173064527933217</v>
+        <v>0.169921552792006</v>
       </c>
       <c r="E17" t="n">
-        <v>0.148824109604267</v>
+        <v>0.148756280085079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.165081798157575</v>
+        <v>0.162742022931855</v>
       </c>
       <c r="G17" t="n">
-        <v>0.157695152030019</v>
+        <v>0.156237178832955</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.140453297414339</v>
+        <v>0.139976992932707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.175250077160162</v>
+        <v>0.171650774254147</v>
       </c>
       <c r="E18" t="n">
-        <v>0.149752145482202</v>
+        <v>0.148522009428104</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167142218689741</v>
+        <v>0.164013852809633</v>
       </c>
       <c r="G18" t="n">
-        <v>0.159194643781348</v>
+        <v>0.156830346324112</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.140551288662607</v>
+        <v>0.139970219950896</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178336716056666</v>
+        <v>0.173881855430316</v>
       </c>
       <c r="E19" t="n">
-        <v>0.150738577344214</v>
+        <v>0.149137104111314</v>
       </c>
       <c r="F19" t="n">
-        <v>0.169566072301312</v>
+        <v>0.165861386903239</v>
       </c>
       <c r="G19" t="n">
-        <v>0.161063720749873</v>
+        <v>0.158250775934941</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.141102375243296</v>
+        <v>0.140374638738098</v>
       </c>
       <c r="D20" t="n">
-        <v>0.181020438310997</v>
+        <v>0.176751998094719</v>
       </c>
       <c r="E20" t="n">
-        <v>0.15208663674997</v>
+        <v>0.150014596002302</v>
       </c>
       <c r="F20" t="n">
-        <v>0.171795556626686</v>
+        <v>0.168259100786475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.162854688406357</v>
+        <v>0.160364483077989</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0.141658536860165</v>
+        <v>0.14079493175463</v>
       </c>
       <c r="D21" t="n">
-        <v>0.18287657254168</v>
+        <v>0.179593215361466</v>
       </c>
       <c r="E21" t="n">
-        <v>0.152711551514961</v>
+        <v>0.151291410735815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.173958169601549</v>
+        <v>0.17073135506102</v>
       </c>
       <c r="G21" t="n">
-        <v>0.164587868853775</v>
+        <v>0.162125116189915</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.142261056685336</v>
+        <v>0.140942314210164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184551184203932</v>
+        <v>0.182026447160569</v>
       </c>
       <c r="E22" t="n">
-        <v>0.154023624162082</v>
+        <v>0.151883105661705</v>
       </c>
       <c r="F22" t="n">
-        <v>0.175513758999872</v>
+        <v>0.173086535145156</v>
       </c>
       <c r="G22" t="n">
-        <v>0.165755215931829</v>
+        <v>0.163744288079462</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0.142308556797405</v>
+        <v>0.141508525478242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.185993284779974</v>
+        <v>0.183888408653581</v>
       </c>
       <c r="E23" t="n">
-        <v>0.155075605665037</v>
+        <v>0.153271916682719</v>
       </c>
       <c r="F23" t="n">
-        <v>0.177221773752888</v>
+        <v>0.174740628860754</v>
       </c>
       <c r="G23" t="n">
-        <v>0.166966055805692</v>
+        <v>0.165040880888677</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>0.142494966659598</v>
+        <v>0.141615533650488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.187631793527077</v>
+        <v>0.185364819674271</v>
       </c>
       <c r="E24" t="n">
-        <v>0.155600857586453</v>
+        <v>0.154389854548127</v>
       </c>
       <c r="F24" t="n">
-        <v>0.178421571201103</v>
+        <v>0.176502028144964</v>
       </c>
       <c r="G24" t="n">
-        <v>0.168165220917447</v>
+        <v>0.166337160381597</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0.142267618379437</v>
+        <v>0.141967456752516</v>
       </c>
       <c r="D25" t="n">
-        <v>0.188797379901402</v>
+        <v>0.187095634641038</v>
       </c>
       <c r="E25" t="n">
-        <v>0.155989156874478</v>
+        <v>0.155016890461696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.179655351166214</v>
+        <v>0.177854592440053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.168666139329295</v>
+        <v>0.167627468689804</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>0.142579369038953</v>
+        <v>0.141860552051251</v>
       </c>
       <c r="D26" t="n">
-        <v>0.189756291560852</v>
+        <v>0.188364589419135</v>
       </c>
       <c r="E26" t="n">
-        <v>0.156240685117138</v>
+        <v>0.155514541053728</v>
       </c>
       <c r="F26" t="n">
-        <v>0.180705939900317</v>
+        <v>0.179147911292232</v>
       </c>
       <c r="G26" t="n">
-        <v>0.168872149356387</v>
+        <v>0.168263601757561</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.142771869587477</v>
+        <v>0.142189098346361</v>
       </c>
       <c r="D27" t="n">
-        <v>0.190683372721632</v>
+        <v>0.189442665228223</v>
       </c>
       <c r="E27" t="n">
-        <v>0.156763643634107</v>
+        <v>0.155855481057944</v>
       </c>
       <c r="F27" t="n">
-        <v>0.181152254942228</v>
+        <v>0.180329719135501</v>
       </c>
       <c r="G27" t="n">
-        <v>0.169197600874936</v>
+        <v>0.168551196150669</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>0.142382519134552</v>
+        <v>0.142556409562545</v>
       </c>
       <c r="D28" t="n">
-        <v>0.191600827728139</v>
+        <v>0.190496254825961</v>
       </c>
       <c r="E28" t="n">
-        <v>0.156645530868022</v>
+        <v>0.156593906632755</v>
       </c>
       <c r="F28" t="n">
-        <v>0.181596354729811</v>
+        <v>0.180932653703327</v>
       </c>
       <c r="G28" t="n">
-        <v>0.169322133053098</v>
+        <v>0.168908526449573</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.14225719413517</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.191483065204518</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.15653553768145</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.18148077150162</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.169214266931534</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2560,621 +2614,639 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>672588.5</v>
+        <v>678392</v>
       </c>
       <c r="D3" t="n">
-        <v>682370.7</v>
+        <v>678392</v>
       </c>
       <c r="E3" t="n">
-        <v>674739.5</v>
+        <v>678392</v>
       </c>
       <c r="F3" t="n">
-        <v>679799</v>
+        <v>678392</v>
       </c>
       <c r="G3" t="n">
-        <v>677161</v>
+        <v>678392</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>656709.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>677039.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>660900.25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>671608</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>666115.5</v>
-      </c>
-      <c r="H4"/>
+        <v>678392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>641596.6</v>
+        <v>661238.9</v>
       </c>
       <c r="D5" t="n">
-        <v>673403.8</v>
+        <v>672434.1</v>
       </c>
       <c r="E5" t="n">
-        <v>648425.75</v>
+        <v>663736.75</v>
       </c>
       <c r="F5" t="n">
-        <v>665418</v>
+        <v>669554</v>
       </c>
       <c r="G5" t="n">
-        <v>656740.5</v>
+        <v>666473</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>629158.2</v>
+        <v>645288.9</v>
       </c>
       <c r="D6" t="n">
-        <v>673871.5</v>
+        <v>668092.1</v>
       </c>
       <c r="E6" t="n">
-        <v>638857.75</v>
+        <v>650301.75</v>
       </c>
       <c r="F6" t="n">
-        <v>663078.5</v>
+        <v>662807</v>
       </c>
       <c r="G6" t="n">
-        <v>650429</v>
+        <v>656234.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>619303.2</v>
+        <v>631653.5</v>
       </c>
       <c r="D7" t="n">
-        <v>677512.8</v>
+        <v>667452.9</v>
       </c>
       <c r="E7" t="n">
-        <v>632471.5</v>
+        <v>639375</v>
       </c>
       <c r="F7" t="n">
-        <v>664560.25</v>
+        <v>658772.75</v>
       </c>
       <c r="G7" t="n">
-        <v>648110</v>
+        <v>648876.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>613776.5</v>
+        <v>620425.8</v>
       </c>
       <c r="D8" t="n">
-        <v>685481.5</v>
+        <v>670511.6</v>
       </c>
       <c r="E8" t="n">
-        <v>629474.25</v>
+        <v>631746.5</v>
       </c>
       <c r="F8" t="n">
-        <v>668136.25</v>
+        <v>658516.5</v>
       </c>
       <c r="G8" t="n">
-        <v>648867</v>
+        <v>645160</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>608644</v>
+        <v>613059.9</v>
       </c>
       <c r="D9" t="n">
-        <v>697536.4</v>
+        <v>677620.6</v>
       </c>
       <c r="E9" t="n">
-        <v>629712</v>
+        <v>628133</v>
       </c>
       <c r="F9" t="n">
-        <v>676985.5</v>
+        <v>662579</v>
       </c>
       <c r="G9" t="n">
-        <v>653103</v>
+        <v>644862</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>608405.8</v>
+        <v>608833</v>
       </c>
       <c r="D10" t="n">
-        <v>713803.5</v>
+        <v>688424.1</v>
       </c>
       <c r="E10" t="n">
-        <v>633844.75</v>
+        <v>627518.25</v>
       </c>
       <c r="F10" t="n">
-        <v>688440.25</v>
+        <v>670327.75</v>
       </c>
       <c r="G10" t="n">
-        <v>660438.5</v>
+        <v>648988.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>607117.2</v>
+        <v>606590.7</v>
       </c>
       <c r="D11" t="n">
-        <v>729501.2</v>
+        <v>704330.8</v>
       </c>
       <c r="E11" t="n">
-        <v>637564.75</v>
+        <v>631092.25</v>
       </c>
       <c r="F11" t="n">
-        <v>701585.25</v>
+        <v>681110.5</v>
       </c>
       <c r="G11" t="n">
-        <v>668428</v>
+        <v>655303.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>603831.1</v>
+        <v>605528.7</v>
       </c>
       <c r="D12" t="n">
-        <v>745251.5</v>
+        <v>718623.7</v>
       </c>
       <c r="E12" t="n">
-        <v>638902.5</v>
+        <v>632900.75</v>
       </c>
       <c r="F12" t="n">
-        <v>713241</v>
+        <v>693340</v>
       </c>
       <c r="G12" t="n">
-        <v>674990.5</v>
+        <v>661821.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>605991.9</v>
+        <v>602128.3</v>
       </c>
       <c r="D13" t="n">
-        <v>768261.4</v>
+        <v>732831.5</v>
       </c>
       <c r="E13" t="n">
-        <v>647495</v>
+        <v>633556.25</v>
       </c>
       <c r="F13" t="n">
-        <v>731147.5</v>
+        <v>704534</v>
       </c>
       <c r="G13" t="n">
-        <v>687323.5</v>
+        <v>668065</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>610489.4</v>
+        <v>602683.1</v>
       </c>
       <c r="D14" t="n">
-        <v>792479.8</v>
+        <v>755834.9</v>
       </c>
       <c r="E14" t="n">
-        <v>657350.5</v>
+        <v>642213</v>
       </c>
       <c r="F14" t="n">
-        <v>751149.5</v>
+        <v>721691.25</v>
       </c>
       <c r="G14" t="n">
-        <v>702764</v>
+        <v>679682.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>614493.1</v>
+        <v>606037.9</v>
       </c>
       <c r="D15" t="n">
-        <v>817624.5</v>
+        <v>780463.4</v>
       </c>
       <c r="E15" t="n">
-        <v>667754.25</v>
+        <v>650504</v>
       </c>
       <c r="F15" t="n">
-        <v>770776</v>
+        <v>739666.25</v>
       </c>
       <c r="G15" t="n">
-        <v>718313.5</v>
+        <v>694356</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>622563.4</v>
+        <v>611012.6</v>
       </c>
       <c r="D16" t="n">
-        <v>838978.7</v>
+        <v>804214.3</v>
       </c>
       <c r="E16" t="n">
-        <v>677973.75</v>
+        <v>660229</v>
       </c>
       <c r="F16" t="n">
-        <v>784757.5</v>
+        <v>758432.75</v>
       </c>
       <c r="G16" t="n">
-        <v>734479.5</v>
+        <v>709620.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>629245.2</v>
+        <v>614694.4</v>
       </c>
       <c r="D17" t="n">
-        <v>862299.6</v>
+        <v>827848.4</v>
       </c>
       <c r="E17" t="n">
-        <v>688636.5</v>
+        <v>669350.5</v>
       </c>
       <c r="F17" t="n">
-        <v>803614.5</v>
+        <v>774553</v>
       </c>
       <c r="G17" t="n">
-        <v>751064.5</v>
+        <v>724987</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>638730.3</v>
+        <v>621356.7</v>
       </c>
       <c r="D18" t="n">
-        <v>884715</v>
+        <v>851011.7</v>
       </c>
       <c r="E18" t="n">
-        <v>698452.25</v>
+        <v>679777.25</v>
       </c>
       <c r="F18" t="n">
-        <v>823882.25</v>
+        <v>793188</v>
       </c>
       <c r="G18" t="n">
-        <v>765977</v>
+        <v>741259.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>645706.7</v>
+        <v>630956.4</v>
       </c>
       <c r="D19" t="n">
-        <v>904485.8</v>
+        <v>873473.9</v>
       </c>
       <c r="E19" t="n">
-        <v>712201</v>
+        <v>689812</v>
       </c>
       <c r="F19" t="n">
-        <v>843334.75</v>
+        <v>813706.75</v>
       </c>
       <c r="G19" t="n">
-        <v>783468.5</v>
+        <v>756521.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>652473.5</v>
+        <v>638025.3</v>
       </c>
       <c r="D20" t="n">
-        <v>923549.4</v>
+        <v>893310.2</v>
       </c>
       <c r="E20" t="n">
-        <v>727835.75</v>
+        <v>703856</v>
       </c>
       <c r="F20" t="n">
-        <v>859241.25</v>
+        <v>833108</v>
       </c>
       <c r="G20" t="n">
-        <v>799988.5</v>
+        <v>774135</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>662871.2</v>
+        <v>645265.4</v>
       </c>
       <c r="D21" t="n">
-        <v>939771.8</v>
+        <v>913223.3</v>
       </c>
       <c r="E21" t="n">
-        <v>740088.75</v>
+        <v>719707.75</v>
       </c>
       <c r="F21" t="n">
-        <v>877519</v>
+        <v>849089.5</v>
       </c>
       <c r="G21" t="n">
-        <v>813450</v>
+        <v>790766</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>668514.2</v>
+        <v>656067.9</v>
       </c>
       <c r="D22" t="n">
-        <v>961765</v>
+        <v>929684.4</v>
       </c>
       <c r="E22" t="n">
-        <v>750183.5</v>
+        <v>731936.5</v>
       </c>
       <c r="F22" t="n">
-        <v>893472</v>
+        <v>868115.25</v>
       </c>
       <c r="G22" t="n">
-        <v>828911.5</v>
+        <v>804670</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>674599.5</v>
+        <v>662191.5</v>
       </c>
       <c r="D23" t="n">
-        <v>979707.8</v>
+        <v>952120.7</v>
       </c>
       <c r="E23" t="n">
-        <v>758609.25</v>
+        <v>742794.5</v>
       </c>
       <c r="F23" t="n">
-        <v>912122</v>
+        <v>884592.25</v>
       </c>
       <c r="G23" t="n">
-        <v>839146</v>
+        <v>820769.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>679231.7</v>
+        <v>668420.8</v>
       </c>
       <c r="D24" t="n">
-        <v>997672.4</v>
+        <v>970808.9</v>
       </c>
       <c r="E24" t="n">
-        <v>769426.25</v>
+        <v>751776.25</v>
       </c>
       <c r="F24" t="n">
-        <v>926325.25</v>
+        <v>904080.5</v>
       </c>
       <c r="G24" t="n">
-        <v>851853</v>
+        <v>831747.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>686557.6</v>
+        <v>673758.5</v>
       </c>
       <c r="D25" t="n">
-        <v>1012061.1</v>
+        <v>989670.3</v>
       </c>
       <c r="E25" t="n">
-        <v>776949</v>
+        <v>763220.75</v>
       </c>
       <c r="F25" t="n">
-        <v>939310.25</v>
+        <v>918289.75</v>
       </c>
       <c r="G25" t="n">
-        <v>860801</v>
+        <v>845203</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>694221.2</v>
+        <v>681780.2</v>
       </c>
       <c r="D26" t="n">
-        <v>1026896</v>
+        <v>1004399</v>
       </c>
       <c r="E26" t="n">
-        <v>781999.5</v>
+        <v>771643.5</v>
       </c>
       <c r="F26" t="n">
-        <v>951435.5</v>
+        <v>932762.25</v>
       </c>
       <c r="G26" t="n">
-        <v>868427.5</v>
+        <v>854590</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>695547.5</v>
+        <v>690266</v>
       </c>
       <c r="D27" t="n">
-        <v>1039583</v>
+        <v>1020498.2</v>
       </c>
       <c r="E27" t="n">
-        <v>785169.5</v>
+        <v>777503.5</v>
       </c>
       <c r="F27" t="n">
-        <v>958163.25</v>
+        <v>945698</v>
       </c>
       <c r="G27" t="n">
-        <v>876045.5</v>
+        <v>863225</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>695811.6</v>
+        <v>692099.7</v>
       </c>
       <c r="D28" t="n">
-        <v>1052724.4</v>
+        <v>1034293.3</v>
       </c>
       <c r="E28" t="n">
-        <v>788095</v>
+        <v>781190.25</v>
       </c>
       <c r="F28" t="n">
-        <v>967224</v>
+        <v>953404</v>
       </c>
       <c r="G28" t="n">
-        <v>881303.5</v>
+        <v>871661.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>693022.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1047615.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>784276</v>
+      </c>
+      <c r="F29" t="n">
+        <v>962607</v>
+      </c>
+      <c r="G29" t="n">
+        <v>877209.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,621 +3301,639 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>326956</v>
+        <v>325645</v>
       </c>
       <c r="D3" t="n">
-        <v>326967.1</v>
+        <v>325645</v>
       </c>
       <c r="E3" t="n">
-        <v>326959</v>
+        <v>325645</v>
       </c>
       <c r="F3" t="n">
-        <v>326965</v>
+        <v>325645</v>
       </c>
       <c r="G3" t="n">
-        <v>326962</v>
+        <v>325645</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>328012</v>
-      </c>
-      <c r="D4" t="n">
-        <v>328039</v>
-      </c>
-      <c r="E4" t="n">
-        <v>328018</v>
-      </c>
-      <c r="F4" t="n">
-        <v>328033</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>328025</v>
-      </c>
-      <c r="H4"/>
+        <v>325645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>326406</v>
+        <v>327614</v>
       </c>
       <c r="D5" t="n">
-        <v>326456</v>
+        <v>327629</v>
       </c>
       <c r="E5" t="n">
-        <v>326418</v>
+        <v>327618</v>
       </c>
       <c r="F5" t="n">
-        <v>326444</v>
+        <v>327625</v>
       </c>
       <c r="G5" t="n">
-        <v>326430</v>
+        <v>327621</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>321665.9</v>
+        <v>326868</v>
       </c>
       <c r="D6" t="n">
-        <v>321742</v>
+        <v>326903</v>
       </c>
       <c r="E6" t="n">
-        <v>321685</v>
+        <v>326877</v>
       </c>
       <c r="F6" t="n">
-        <v>321725</v>
+        <v>326895</v>
       </c>
       <c r="G6" t="n">
-        <v>321704</v>
+        <v>326886</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>315206</v>
+        <v>322762</v>
       </c>
       <c r="D7" t="n">
-        <v>315314</v>
+        <v>322824</v>
       </c>
       <c r="E7" t="n">
-        <v>315234</v>
+        <v>322778</v>
       </c>
       <c r="F7" t="n">
-        <v>315289</v>
+        <v>322810</v>
       </c>
       <c r="G7" t="n">
-        <v>315260</v>
+        <v>322793</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>306095</v>
+        <v>316625.9</v>
       </c>
       <c r="D8" t="n">
-        <v>306238</v>
+        <v>316716</v>
       </c>
       <c r="E8" t="n">
-        <v>306131</v>
+        <v>316648</v>
       </c>
       <c r="F8" t="n">
-        <v>306206.25</v>
+        <v>316696</v>
       </c>
       <c r="G8" t="n">
-        <v>306167</v>
+        <v>316672</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>295544.9</v>
+        <v>307577</v>
       </c>
       <c r="D9" t="n">
-        <v>295735.1</v>
+        <v>307703</v>
       </c>
       <c r="E9" t="n">
-        <v>295597</v>
+        <v>307611</v>
       </c>
       <c r="F9" t="n">
-        <v>295691</v>
+        <v>307676</v>
       </c>
       <c r="G9" t="n">
-        <v>295642</v>
+        <v>307642</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>283830.9</v>
+        <v>296930.9</v>
       </c>
       <c r="D10" t="n">
-        <v>284065</v>
+        <v>297095</v>
       </c>
       <c r="E10" t="n">
-        <v>283890</v>
+        <v>296976</v>
       </c>
       <c r="F10" t="n">
-        <v>284009</v>
+        <v>297059</v>
       </c>
       <c r="G10" t="n">
-        <v>283947</v>
+        <v>297016</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>275137</v>
+        <v>285006.9</v>
       </c>
       <c r="D11" t="n">
-        <v>275420</v>
+        <v>285215.1</v>
       </c>
       <c r="E11" t="n">
-        <v>275204</v>
+        <v>285059.75</v>
       </c>
       <c r="F11" t="n">
-        <v>275347.5</v>
+        <v>285165</v>
       </c>
       <c r="G11" t="n">
-        <v>275276</v>
+        <v>285114</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>271925.9</v>
+        <v>276036</v>
       </c>
       <c r="D12" t="n">
-        <v>272271</v>
+        <v>276297</v>
       </c>
       <c r="E12" t="n">
-        <v>272009</v>
+        <v>276099</v>
       </c>
       <c r="F12" t="n">
-        <v>272182.25</v>
+        <v>276231</v>
       </c>
       <c r="G12" t="n">
-        <v>272098</v>
+        <v>276169</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>266735.9</v>
+        <v>272604</v>
       </c>
       <c r="D13" t="n">
-        <v>267147.1</v>
+        <v>272922.1</v>
       </c>
       <c r="E13" t="n">
-        <v>266835</v>
+        <v>272680.75</v>
       </c>
       <c r="F13" t="n">
-        <v>267041.25</v>
+        <v>272838.25</v>
       </c>
       <c r="G13" t="n">
-        <v>266938</v>
+        <v>272764</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>262784</v>
+        <v>267085.9</v>
       </c>
       <c r="D14" t="n">
-        <v>263266.4</v>
+        <v>267464.1</v>
       </c>
       <c r="E14" t="n">
-        <v>262899</v>
+        <v>267179</v>
       </c>
       <c r="F14" t="n">
-        <v>263138</v>
+        <v>267368</v>
       </c>
       <c r="G14" t="n">
-        <v>263017.5</v>
+        <v>267276</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>261414.9</v>
+        <v>262735</v>
       </c>
       <c r="D15" t="n">
-        <v>261983.2</v>
+        <v>263183</v>
       </c>
       <c r="E15" t="n">
-        <v>261552</v>
+        <v>262843.5</v>
       </c>
       <c r="F15" t="n">
-        <v>261832.5</v>
+        <v>263064</v>
       </c>
       <c r="G15" t="n">
-        <v>261695.5</v>
+        <v>262958.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>256880.1</v>
+        <v>260842.7</v>
       </c>
       <c r="D16" t="n">
-        <v>267125</v>
+        <v>261370.1</v>
       </c>
       <c r="E16" t="n">
-        <v>259144.5</v>
+        <v>260967.5</v>
       </c>
       <c r="F16" t="n">
-        <v>264451.75</v>
+        <v>261231</v>
       </c>
       <c r="G16" t="n">
-        <v>261641.5</v>
+        <v>261103.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>249903.6</v>
+        <v>260450.8</v>
       </c>
       <c r="D17" t="n">
-        <v>270511.9</v>
+        <v>261072.2</v>
       </c>
       <c r="E17" t="n">
-        <v>254121.5</v>
+        <v>260595</v>
       </c>
       <c r="F17" t="n">
-        <v>264956.25</v>
+        <v>260907</v>
       </c>
       <c r="G17" t="n">
-        <v>259361</v>
+        <v>260758</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>247295.9</v>
+        <v>252467</v>
       </c>
       <c r="D18" t="n">
-        <v>279704.4</v>
+        <v>263898.8</v>
       </c>
       <c r="E18" t="n">
-        <v>254120.75</v>
+        <v>254957.75</v>
       </c>
       <c r="F18" t="n">
-        <v>271299</v>
+        <v>260994.75</v>
       </c>
       <c r="G18" t="n">
-        <v>262597.5</v>
+        <v>257896.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>246726.6</v>
+        <v>249357.8</v>
       </c>
       <c r="D19" t="n">
-        <v>291923.5</v>
+        <v>272581.7</v>
       </c>
       <c r="E19" t="n">
-        <v>256675.25</v>
+        <v>254587.25</v>
       </c>
       <c r="F19" t="n">
-        <v>280830.25</v>
+        <v>267105.75</v>
       </c>
       <c r="G19" t="n">
-        <v>268384</v>
+        <v>260651</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>246026.5</v>
+        <v>248346.3</v>
       </c>
       <c r="D20" t="n">
-        <v>304830.5</v>
+        <v>284620.6</v>
       </c>
       <c r="E20" t="n">
-        <v>259361.25</v>
+        <v>256120.5</v>
       </c>
       <c r="F20" t="n">
-        <v>291721.75</v>
+        <v>275886.5</v>
       </c>
       <c r="G20" t="n">
-        <v>275190.5</v>
+        <v>266025</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>246990.8</v>
+        <v>246945</v>
       </c>
       <c r="D21" t="n">
-        <v>313120.7</v>
+        <v>297623.5</v>
       </c>
       <c r="E21" t="n">
-        <v>262549.5</v>
+        <v>258415.5</v>
       </c>
       <c r="F21" t="n">
-        <v>297757.25</v>
+        <v>285383.25</v>
       </c>
       <c r="G21" t="n">
-        <v>279555</v>
+        <v>272105.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>248088.1</v>
+        <v>244102.6</v>
       </c>
       <c r="D22" t="n">
-        <v>320751.9</v>
+        <v>309281.8</v>
       </c>
       <c r="E22" t="n">
-        <v>266017</v>
+        <v>259444.25</v>
       </c>
       <c r="F22" t="n">
-        <v>304408.25</v>
+        <v>294160</v>
       </c>
       <c r="G22" t="n">
-        <v>285182</v>
+        <v>276195.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>250759.3</v>
+        <v>245008</v>
       </c>
       <c r="D23" t="n">
-        <v>329038.7</v>
+        <v>316615.5</v>
       </c>
       <c r="E23" t="n">
-        <v>270019.75</v>
+        <v>262745.75</v>
       </c>
       <c r="F23" t="n">
-        <v>311161.75</v>
+        <v>300573.5</v>
       </c>
       <c r="G23" t="n">
-        <v>290213</v>
+        <v>281606.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>253975.8</v>
+        <v>247565</v>
       </c>
       <c r="D24" t="n">
-        <v>336472.2</v>
+        <v>324625.2</v>
       </c>
       <c r="E24" t="n">
-        <v>273373.5</v>
+        <v>266594</v>
       </c>
       <c r="F24" t="n">
-        <v>318394.5</v>
+        <v>307042.25</v>
       </c>
       <c r="G24" t="n">
-        <v>296470.5</v>
+        <v>286451</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>256779.3</v>
+        <v>250718.6</v>
       </c>
       <c r="D25" t="n">
-        <v>346212.6</v>
+        <v>331870.9</v>
       </c>
       <c r="E25" t="n">
-        <v>278341.75</v>
+        <v>269793</v>
       </c>
       <c r="F25" t="n">
-        <v>325527.5</v>
+        <v>314129.75</v>
       </c>
       <c r="G25" t="n">
-        <v>302110.5</v>
+        <v>292501</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>259547</v>
+        <v>253412.2</v>
       </c>
       <c r="D26" t="n">
-        <v>355670.9</v>
+        <v>341421.2</v>
       </c>
       <c r="E26" t="n">
-        <v>283898.75</v>
+        <v>274622.75</v>
       </c>
       <c r="F26" t="n">
-        <v>333086.5</v>
+        <v>321094.5</v>
       </c>
       <c r="G26" t="n">
-        <v>309526</v>
+        <v>298039</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>262713.5</v>
+        <v>256132.7</v>
       </c>
       <c r="D27" t="n">
-        <v>364116.5</v>
+        <v>350700.5</v>
       </c>
       <c r="E27" t="n">
-        <v>288445.75</v>
+        <v>280152</v>
       </c>
       <c r="F27" t="n">
-        <v>341327.25</v>
+        <v>328572</v>
       </c>
       <c r="G27" t="n">
-        <v>317599.5</v>
+        <v>305410</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>266152</v>
+        <v>259262.3</v>
       </c>
       <c r="D28" t="n">
-        <v>374448.1</v>
+        <v>359195.4</v>
       </c>
       <c r="E28" t="n">
-        <v>293499.25</v>
+        <v>284595.25</v>
       </c>
       <c r="F28" t="n">
-        <v>348904.5</v>
+        <v>336672.25</v>
       </c>
       <c r="G28" t="n">
-        <v>323896.5</v>
+        <v>313341.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>262791.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>369587.6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>289749.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>344393.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>319724</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3898,621 +3988,639 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>65521</v>
+        <v>64863</v>
       </c>
       <c r="D3" t="n">
-        <v>65525</v>
+        <v>64863</v>
       </c>
       <c r="E3" t="n">
-        <v>65522</v>
+        <v>64863</v>
       </c>
       <c r="F3" t="n">
-        <v>65524</v>
+        <v>64863</v>
       </c>
       <c r="G3" t="n">
-        <v>65523</v>
+        <v>64863</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>67331</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67340</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67333</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67338</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>67336</v>
-      </c>
-      <c r="H4"/>
+        <v>64863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>68467</v>
+        <v>66821</v>
       </c>
       <c r="D5" t="n">
-        <v>68484</v>
+        <v>66826</v>
       </c>
       <c r="E5" t="n">
-        <v>68471</v>
+        <v>66823</v>
       </c>
       <c r="F5" t="n">
-        <v>68480</v>
+        <v>66825</v>
       </c>
       <c r="G5" t="n">
-        <v>68475</v>
+        <v>66824</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>67870</v>
+        <v>68166</v>
       </c>
       <c r="D6" t="n">
-        <v>67896</v>
+        <v>68177</v>
       </c>
       <c r="E6" t="n">
-        <v>67876</v>
+        <v>68169</v>
       </c>
       <c r="F6" t="n">
-        <v>67889</v>
+        <v>68175</v>
       </c>
       <c r="G6" t="n">
-        <v>67883</v>
+        <v>68171</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>67936</v>
+        <v>67813</v>
       </c>
       <c r="D7" t="n">
-        <v>67973</v>
+        <v>67833.1</v>
       </c>
       <c r="E7" t="n">
-        <v>67946</v>
+        <v>67818</v>
       </c>
       <c r="F7" t="n">
-        <v>67964</v>
+        <v>67829</v>
       </c>
       <c r="G7" t="n">
-        <v>67955</v>
+        <v>67823</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>66652</v>
+        <v>68098</v>
       </c>
       <c r="D8" t="n">
-        <v>66699</v>
+        <v>68129</v>
       </c>
       <c r="E8" t="n">
-        <v>66664</v>
+        <v>68106</v>
       </c>
       <c r="F8" t="n">
-        <v>66689</v>
+        <v>68122</v>
       </c>
       <c r="G8" t="n">
-        <v>66675</v>
+        <v>68114</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>65800</v>
+        <v>66905</v>
       </c>
       <c r="D9" t="n">
-        <v>65862.1</v>
+        <v>66947</v>
       </c>
       <c r="E9" t="n">
-        <v>65817</v>
+        <v>66916.75</v>
       </c>
       <c r="F9" t="n">
-        <v>65848</v>
+        <v>66938</v>
       </c>
       <c r="G9" t="n">
-        <v>65832</v>
+        <v>66927</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>63803</v>
+        <v>66149</v>
       </c>
       <c r="D10" t="n">
-        <v>63880</v>
+        <v>66204.1</v>
       </c>
       <c r="E10" t="n">
-        <v>63822.75</v>
+        <v>66164</v>
       </c>
       <c r="F10" t="n">
-        <v>63861.25</v>
+        <v>66192</v>
       </c>
       <c r="G10" t="n">
-        <v>63842</v>
+        <v>66178</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>61488.9</v>
+        <v>64135.9</v>
       </c>
       <c r="D11" t="n">
-        <v>61580.1</v>
+        <v>64205</v>
       </c>
       <c r="E11" t="n">
-        <v>61510</v>
+        <v>64152.75</v>
       </c>
       <c r="F11" t="n">
-        <v>61556</v>
+        <v>64188</v>
       </c>
       <c r="G11" t="n">
-        <v>61534</v>
+        <v>64170.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>58904.9</v>
+        <v>61752.9</v>
       </c>
       <c r="D12" t="n">
-        <v>59013.1</v>
+        <v>61838</v>
       </c>
       <c r="E12" t="n">
-        <v>58931</v>
+        <v>61773</v>
       </c>
       <c r="F12" t="n">
-        <v>58985</v>
+        <v>61816</v>
       </c>
       <c r="G12" t="n">
-        <v>58958</v>
+        <v>61795</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>56187.9</v>
+        <v>59130</v>
       </c>
       <c r="D13" t="n">
-        <v>56315</v>
+        <v>59231</v>
       </c>
       <c r="E13" t="n">
-        <v>56219</v>
+        <v>59153</v>
       </c>
       <c r="F13" t="n">
-        <v>56282</v>
+        <v>59205</v>
       </c>
       <c r="G13" t="n">
-        <v>56250</v>
+        <v>59180</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>54167</v>
+        <v>56339</v>
       </c>
       <c r="D14" t="n">
-        <v>54314</v>
+        <v>56457</v>
       </c>
       <c r="E14" t="n">
-        <v>54202</v>
+        <v>56368</v>
       </c>
       <c r="F14" t="n">
-        <v>54274</v>
+        <v>56427.25</v>
       </c>
       <c r="G14" t="n">
-        <v>54239</v>
+        <v>56398</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>55186.9</v>
+        <v>54306.9</v>
       </c>
       <c r="D15" t="n">
-        <v>55354.1</v>
+        <v>54443.1</v>
       </c>
       <c r="E15" t="n">
-        <v>55225</v>
+        <v>54339</v>
       </c>
       <c r="F15" t="n">
-        <v>55309</v>
+        <v>54407.25</v>
       </c>
       <c r="G15" t="n">
-        <v>55268</v>
+        <v>54374</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>58357.9</v>
+        <v>55244</v>
       </c>
       <c r="D16" t="n">
-        <v>58549.1</v>
+        <v>55403.1</v>
       </c>
       <c r="E16" t="n">
-        <v>58402</v>
+        <v>55280</v>
       </c>
       <c r="F16" t="n">
-        <v>58499</v>
+        <v>55362</v>
       </c>
       <c r="G16" t="n">
-        <v>58452.5</v>
+        <v>55323</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>53794</v>
+        <v>58397</v>
       </c>
       <c r="D17" t="n">
-        <v>54013</v>
+        <v>58581</v>
       </c>
       <c r="E17" t="n">
-        <v>53845</v>
+        <v>58438.75</v>
       </c>
       <c r="F17" t="n">
-        <v>53956</v>
+        <v>58533</v>
       </c>
       <c r="G17" t="n">
-        <v>53903</v>
+        <v>58488</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>52311.9</v>
+        <v>53692</v>
       </c>
       <c r="D18" t="n">
-        <v>52562.1</v>
+        <v>53899</v>
       </c>
       <c r="E18" t="n">
-        <v>52372</v>
+        <v>53737.75</v>
       </c>
       <c r="F18" t="n">
-        <v>52499</v>
+        <v>53847</v>
       </c>
       <c r="G18" t="n">
-        <v>52437</v>
+        <v>53795</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>52880</v>
+        <v>52066.8</v>
       </c>
       <c r="D19" t="n">
-        <v>53161.1</v>
+        <v>52302.1</v>
       </c>
       <c r="E19" t="n">
-        <v>52946.75</v>
+        <v>52121</v>
       </c>
       <c r="F19" t="n">
-        <v>53091.25</v>
+        <v>52244</v>
       </c>
       <c r="G19" t="n">
-        <v>53019.5</v>
+        <v>52184</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50701.8</v>
+        <v>52492</v>
       </c>
       <c r="D20" t="n">
-        <v>60687.1</v>
+        <v>52758</v>
       </c>
       <c r="E20" t="n">
-        <v>52887</v>
+        <v>52553</v>
       </c>
       <c r="F20" t="n">
-        <v>58059.5</v>
+        <v>52692.25</v>
       </c>
       <c r="G20" t="n">
-        <v>55305</v>
+        <v>52624</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>50916.6</v>
+        <v>54930.9</v>
       </c>
       <c r="D21" t="n">
-        <v>62329.5</v>
+        <v>55233</v>
       </c>
       <c r="E21" t="n">
-        <v>53442.25</v>
+        <v>55003.75</v>
       </c>
       <c r="F21" t="n">
-        <v>59434.75</v>
+        <v>55160</v>
       </c>
       <c r="G21" t="n">
-        <v>56328.5</v>
+        <v>55081</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>50827.2</v>
+        <v>50407</v>
       </c>
       <c r="D22" t="n">
-        <v>63966.8</v>
+        <v>61662.8</v>
       </c>
       <c r="E22" t="n">
-        <v>53911</v>
+        <v>52887.75</v>
       </c>
       <c r="F22" t="n">
-        <v>60878.75</v>
+        <v>58807.25</v>
       </c>
       <c r="G22" t="n">
-        <v>57374</v>
+        <v>55744</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>51132</v>
+        <v>50286.9</v>
       </c>
       <c r="D23" t="n">
-        <v>65714.3</v>
+        <v>63235.9</v>
       </c>
       <c r="E23" t="n">
-        <v>54274.75</v>
+        <v>53325.75</v>
       </c>
       <c r="F23" t="n">
-        <v>62339.5</v>
+        <v>60197</v>
       </c>
       <c r="G23" t="n">
-        <v>58499.5</v>
+        <v>56740</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>51624.5</v>
+        <v>50541.7</v>
       </c>
       <c r="D24" t="n">
-        <v>67183.3</v>
+        <v>64922</v>
       </c>
       <c r="E24" t="n">
-        <v>55347.5</v>
+        <v>53642.25</v>
       </c>
       <c r="F24" t="n">
-        <v>63411</v>
+        <v>61597.25</v>
       </c>
       <c r="G24" t="n">
-        <v>59466</v>
+        <v>57807.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>52133.2</v>
+        <v>51006.2</v>
       </c>
       <c r="D25" t="n">
-        <v>68605.7</v>
+        <v>66319.9</v>
       </c>
       <c r="E25" t="n">
-        <v>55951</v>
+        <v>54676.25</v>
       </c>
       <c r="F25" t="n">
-        <v>64793.25</v>
+        <v>62612</v>
       </c>
       <c r="G25" t="n">
-        <v>60761.5</v>
+        <v>58723</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>52563.2</v>
+        <v>51479.5</v>
       </c>
       <c r="D26" t="n">
-        <v>70474</v>
+        <v>67703.2</v>
       </c>
       <c r="E26" t="n">
-        <v>56926.5</v>
+        <v>55246</v>
       </c>
       <c r="F26" t="n">
-        <v>66451.5</v>
+        <v>63945.5</v>
       </c>
       <c r="G26" t="n">
-        <v>61700</v>
+        <v>59980.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>53574.5</v>
+        <v>51885.3</v>
       </c>
       <c r="D27" t="n">
-        <v>72084.7</v>
+        <v>69518.1</v>
       </c>
       <c r="E27" t="n">
-        <v>57980.75</v>
+        <v>56183.25</v>
       </c>
       <c r="F27" t="n">
-        <v>67928.75</v>
+        <v>65565.75</v>
       </c>
       <c r="G27" t="n">
-        <v>62959</v>
+        <v>60879.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>54120.8</v>
+        <v>52869.8</v>
       </c>
       <c r="D28" t="n">
-        <v>73726.4</v>
+        <v>71078.6</v>
       </c>
       <c r="E28" t="n">
-        <v>58852.5</v>
+        <v>57213.25</v>
       </c>
       <c r="F28" t="n">
-        <v>69581</v>
+        <v>66991.25</v>
       </c>
       <c r="G28" t="n">
-        <v>64097</v>
+        <v>62108</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>53403.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>72687</v>
+      </c>
+      <c r="E29" t="n">
+        <v>58070.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>68629.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>63243</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,621 +4675,639 @@
         <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>40510.1</v>
+        <v>44364</v>
       </c>
       <c r="D3" t="n">
-        <v>50312.4</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
-        <v>42657.5</v>
+        <v>44364</v>
       </c>
       <c r="F3" t="n">
-        <v>47735.25</v>
+        <v>44364</v>
       </c>
       <c r="G3" t="n">
-        <v>45095</v>
+        <v>44364</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>40678.8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>52007.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>43188.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>49099.5</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>45975</v>
-      </c>
-      <c r="H4"/>
+        <v>44364.3370385992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>40476.9</v>
+        <v>40213.8</v>
       </c>
       <c r="D5" t="n">
-        <v>53402.7</v>
+        <v>51408.1</v>
       </c>
       <c r="E5" t="n">
-        <v>43520.25</v>
+        <v>42693.75</v>
       </c>
       <c r="F5" t="n">
-        <v>50484</v>
+        <v>48534.75</v>
       </c>
       <c r="G5" t="n">
-        <v>46910</v>
+        <v>45448.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>40747</v>
+        <v>39979.3</v>
       </c>
       <c r="D6" t="n">
-        <v>55002.6</v>
+        <v>52741.8</v>
       </c>
       <c r="E6" t="n">
-        <v>43759</v>
+        <v>42986</v>
       </c>
       <c r="F6" t="n">
-        <v>51728.5</v>
+        <v>49863</v>
       </c>
       <c r="G6" t="n">
-        <v>48031</v>
+        <v>46332.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>41177.2</v>
+        <v>40216.4</v>
       </c>
       <c r="D7" t="n">
-        <v>56447.7</v>
+        <v>54278.8</v>
       </c>
       <c r="E7" t="n">
-        <v>44772.75</v>
+        <v>43187</v>
       </c>
       <c r="F7" t="n">
-        <v>52746.5</v>
+        <v>51049.25</v>
       </c>
       <c r="G7" t="n">
-        <v>48811</v>
+        <v>47399.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>41633.2</v>
+        <v>40611.3</v>
       </c>
       <c r="D8" t="n">
-        <v>57744.5</v>
+        <v>55676.1</v>
       </c>
       <c r="E8" t="n">
-        <v>45450</v>
+        <v>44157</v>
       </c>
       <c r="F8" t="n">
-        <v>53973.75</v>
+        <v>52014.75</v>
       </c>
       <c r="G8" t="n">
-        <v>50060</v>
+        <v>48137</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>41994.5</v>
+        <v>41035.9</v>
       </c>
       <c r="D9" t="n">
-        <v>59529.1</v>
+        <v>56907.8</v>
       </c>
       <c r="E9" t="n">
-        <v>46136.25</v>
+        <v>44796</v>
       </c>
       <c r="F9" t="n">
-        <v>55464</v>
+        <v>53196.75</v>
       </c>
       <c r="G9" t="n">
-        <v>50865</v>
+        <v>49341</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>42817.4</v>
+        <v>41375.2</v>
       </c>
       <c r="D10" t="n">
-        <v>61041.3</v>
+        <v>58644.6</v>
       </c>
       <c r="E10" t="n">
-        <v>47192.5</v>
+        <v>45457.75</v>
       </c>
       <c r="F10" t="n">
-        <v>56906</v>
+        <v>54658.25</v>
       </c>
       <c r="G10" t="n">
-        <v>52037.5</v>
+        <v>50112</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>43272.7</v>
+        <v>42178.2</v>
       </c>
       <c r="D11" t="n">
-        <v>62473</v>
+        <v>60132.9</v>
       </c>
       <c r="E11" t="n">
-        <v>48064</v>
+        <v>46486.75</v>
       </c>
       <c r="F11" t="n">
-        <v>58462.5</v>
+        <v>56045.75</v>
       </c>
       <c r="G11" t="n">
-        <v>53168</v>
+        <v>51257</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>43612.6</v>
+        <v>42621.5</v>
       </c>
       <c r="D12" t="n">
-        <v>64486.2</v>
+        <v>61528.3</v>
       </c>
       <c r="E12" t="n">
-        <v>48895.25</v>
+        <v>47342</v>
       </c>
       <c r="F12" t="n">
-        <v>59831.25</v>
+        <v>57590.5</v>
       </c>
       <c r="G12" t="n">
-        <v>54505.5</v>
+        <v>52377</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>44163.8</v>
+        <v>42973.7</v>
       </c>
       <c r="D13" t="n">
-        <v>66323.5</v>
+        <v>63521.4</v>
       </c>
       <c r="E13" t="n">
-        <v>49788</v>
+        <v>48170.25</v>
       </c>
       <c r="F13" t="n">
-        <v>61146</v>
+        <v>58950.25</v>
       </c>
       <c r="G13" t="n">
-        <v>56155</v>
+        <v>53699.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>45296.4</v>
+        <v>43537.5</v>
       </c>
       <c r="D14" t="n">
-        <v>68205.9</v>
+        <v>65366.1</v>
       </c>
       <c r="E14" t="n">
-        <v>51078</v>
+        <v>49080.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63075.75</v>
+        <v>60274.5</v>
       </c>
       <c r="G14" t="n">
-        <v>57415</v>
+        <v>55361.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>46344</v>
+        <v>44694</v>
       </c>
       <c r="D15" t="n">
-        <v>69844.8</v>
+        <v>67287.3</v>
       </c>
       <c r="E15" t="n">
-        <v>51951.75</v>
+        <v>50389</v>
       </c>
       <c r="F15" t="n">
-        <v>64463</v>
+        <v>62222.5</v>
       </c>
       <c r="G15" t="n">
-        <v>58836.5</v>
+        <v>56650</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>46930</v>
+        <v>45765.1</v>
       </c>
       <c r="D16" t="n">
-        <v>71358.4</v>
+        <v>68983</v>
       </c>
       <c r="E16" t="n">
-        <v>53358.75</v>
+        <v>51314</v>
       </c>
       <c r="F16" t="n">
-        <v>65668.25</v>
+        <v>63665.75</v>
       </c>
       <c r="G16" t="n">
-        <v>59855.5</v>
+        <v>58103</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>47112.8</v>
+        <v>46395.1</v>
       </c>
       <c r="D17" t="n">
-        <v>72438.3</v>
+        <v>70551.8</v>
       </c>
       <c r="E17" t="n">
-        <v>53971.5</v>
+        <v>52765.5</v>
       </c>
       <c r="F17" t="n">
-        <v>67048.5</v>
+        <v>64920</v>
       </c>
       <c r="G17" t="n">
-        <v>60890</v>
+        <v>59182.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>47230.6</v>
+        <v>46639.7</v>
       </c>
       <c r="D18" t="n">
-        <v>74226.8</v>
+        <v>71689.3</v>
       </c>
       <c r="E18" t="n">
-        <v>54803.25</v>
+        <v>53444</v>
       </c>
       <c r="F18" t="n">
-        <v>68277</v>
+        <v>66379.75</v>
       </c>
       <c r="G18" t="n">
-        <v>61601</v>
+        <v>60276</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>47431.8</v>
+        <v>46843.8</v>
       </c>
       <c r="D19" t="n">
-        <v>75713.4</v>
+        <v>73586.3</v>
       </c>
       <c r="E19" t="n">
-        <v>55254.25</v>
+        <v>54346.5</v>
       </c>
       <c r="F19" t="n">
-        <v>69178.25</v>
+        <v>67691.75</v>
       </c>
       <c r="G19" t="n">
-        <v>62406</v>
+        <v>61078.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>48551.3</v>
+        <v>47102.9</v>
       </c>
       <c r="D20" t="n">
-        <v>77050.9</v>
+        <v>75156.2</v>
       </c>
       <c r="E20" t="n">
-        <v>56004.5</v>
+        <v>54854</v>
       </c>
       <c r="F20" t="n">
-        <v>70117</v>
+        <v>68693.25</v>
       </c>
       <c r="G20" t="n">
-        <v>63349</v>
+        <v>61963.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>48688.5</v>
+        <v>48277.5</v>
       </c>
       <c r="D21" t="n">
-        <v>78383.6</v>
+        <v>76589.9</v>
       </c>
       <c r="E21" t="n">
-        <v>56119.5</v>
+        <v>55680.75</v>
       </c>
       <c r="F21" t="n">
-        <v>70919</v>
+        <v>69684.75</v>
       </c>
       <c r="G21" t="n">
-        <v>63674.5</v>
+        <v>63001.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>48498.3</v>
+        <v>48496.5</v>
       </c>
       <c r="D22" t="n">
-        <v>78805.7</v>
+        <v>78027.9</v>
       </c>
       <c r="E22" t="n">
-        <v>56247</v>
+        <v>55869</v>
       </c>
       <c r="F22" t="n">
-        <v>71683.25</v>
+        <v>70609</v>
       </c>
       <c r="G22" t="n">
-        <v>64400.5</v>
+        <v>63372</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>48151.1</v>
+        <v>48351.1</v>
       </c>
       <c r="D23" t="n">
-        <v>79568.3</v>
+        <v>78529.7</v>
       </c>
       <c r="E23" t="n">
-        <v>56337.75</v>
+        <v>56066</v>
       </c>
       <c r="F23" t="n">
-        <v>71519.25</v>
+        <v>71437</v>
       </c>
       <c r="G23" t="n">
-        <v>64458</v>
+        <v>64181.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>48632.2</v>
+        <v>48052.2</v>
       </c>
       <c r="D24" t="n">
-        <v>79573</v>
+        <v>79324.9</v>
       </c>
       <c r="E24" t="n">
-        <v>56019.5</v>
+        <v>56237.75</v>
       </c>
       <c r="F24" t="n">
-        <v>71889.75</v>
+        <v>71327.25</v>
       </c>
       <c r="G24" t="n">
-        <v>64488</v>
+        <v>64318.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>47532.9</v>
+        <v>48588.5</v>
       </c>
       <c r="D25" t="n">
-        <v>79507.5</v>
+        <v>79482.9</v>
       </c>
       <c r="E25" t="n">
-        <v>56744</v>
+        <v>55911.25</v>
       </c>
       <c r="F25" t="n">
-        <v>72287.25</v>
+        <v>71757.5</v>
       </c>
       <c r="G25" t="n">
-        <v>64300.5</v>
+        <v>64395</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>47395.9</v>
+        <v>47449.6</v>
       </c>
       <c r="D26" t="n">
-        <v>79756.9</v>
+        <v>79454.4</v>
       </c>
       <c r="E26" t="n">
-        <v>56455</v>
+        <v>56646.75</v>
       </c>
       <c r="F26" t="n">
-        <v>71901.25</v>
+        <v>72168.75</v>
       </c>
       <c r="G26" t="n">
-        <v>64621.5</v>
+        <v>64268.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>47512.1</v>
+        <v>47342.9</v>
       </c>
       <c r="D27" t="n">
-        <v>79501.8</v>
+        <v>79708.4</v>
       </c>
       <c r="E27" t="n">
-        <v>56032.25</v>
+        <v>56462.75</v>
       </c>
       <c r="F27" t="n">
-        <v>72186.5</v>
+        <v>71888.25</v>
       </c>
       <c r="G27" t="n">
-        <v>64564</v>
+        <v>64585.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>47314.4</v>
+        <v>47527.6</v>
       </c>
       <c r="D28" t="n">
-        <v>78698.1</v>
+        <v>79522.2</v>
       </c>
       <c r="E28" t="n">
-        <v>55825.75</v>
+        <v>56074</v>
       </c>
       <c r="F28" t="n">
-        <v>72386</v>
+        <v>72101</v>
       </c>
       <c r="G28" t="n">
-        <v>64427.5</v>
+        <v>64455</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47250.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>78637.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>55896.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>72330</v>
+      </c>
+      <c r="G29" t="n">
+        <v>64364</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,16 +5362,16 @@
         <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
         <v>168</v>
@@ -5254,603 +5380,621 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>145</v>
-      </c>
-      <c r="D4" t="n">
-        <v>188</v>
-      </c>
-      <c r="E4" t="n">
-        <v>153</v>
-      </c>
-      <c r="F4" t="n">
-        <v>176</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>165</v>
-      </c>
-      <c r="H4"/>
+        <v>168.031765672152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D5" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F5" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D6" t="n">
-        <v>191</v>
+        <v>196.1</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F6" t="n">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G6" t="n">
-        <v>158.5</v>
+        <v>167</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
-        <v>190.1</v>
+        <v>196.1</v>
       </c>
       <c r="E7" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F7" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G7" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D8" t="n">
-        <v>189</v>
+        <v>196.1</v>
       </c>
       <c r="E8" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F8" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G8" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D9" t="n">
-        <v>192</v>
+        <v>194.1</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F9" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G9" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>191</v>
+        <v>196.1</v>
       </c>
       <c r="E10" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F10" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G10" t="n">
-        <v>147</v>
+        <v>154.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D11" t="n">
-        <v>191</v>
+        <v>195.1</v>
       </c>
       <c r="E11" t="n">
-        <v>126.75</v>
+        <v>134</v>
       </c>
       <c r="F11" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G11" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D12" t="n">
-        <v>190</v>
+        <v>195.1</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G12" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>106.9</v>
+        <v>113</v>
       </c>
       <c r="D13" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E13" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G13" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D14" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E14" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F14" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G14" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
-        <v>192</v>
+        <v>195.1</v>
       </c>
       <c r="E15" t="n">
-        <v>117</v>
+        <v>123.75</v>
       </c>
       <c r="F15" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G15" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>194</v>
+        <v>196.1</v>
       </c>
       <c r="E16" t="n">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F16" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G16" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>98</v>
+        <v>102.9</v>
       </c>
       <c r="D17" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E17" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F17" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G17" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D18" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E18" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F18" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G18" t="n">
-        <v>131.5</v>
+        <v>138</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D19" t="n">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E19" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F19" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G19" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D20" t="n">
-        <v>194</v>
+        <v>198.1</v>
       </c>
       <c r="E20" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F20" t="n">
-        <v>161</v>
+        <v>166.25</v>
       </c>
       <c r="G20" t="n">
-        <v>132</v>
+        <v>136.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D21" t="n">
-        <v>196.1</v>
+        <v>199.1</v>
       </c>
       <c r="E21" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F21" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G21" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>93.9</v>
       </c>
       <c r="D22" t="n">
-        <v>195</v>
+        <v>201.1</v>
       </c>
       <c r="E22" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F22" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G22" t="n">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D23" t="n">
-        <v>195</v>
+        <v>201.1</v>
       </c>
       <c r="E23" t="n">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F23" t="n">
-        <v>159.25</v>
+        <v>168.25</v>
       </c>
       <c r="G23" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D24" t="n">
-        <v>192.1</v>
+        <v>202</v>
       </c>
       <c r="E24" t="n">
-        <v>101</v>
+        <v>106.75</v>
       </c>
       <c r="F24" t="n">
-        <v>158.25</v>
+        <v>165.25</v>
       </c>
       <c r="G24" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D25" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="E25" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
-        <v>157.25</v>
+        <v>163.25</v>
       </c>
       <c r="G25" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D26" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E26" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F26" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G26" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D27" t="n">
-        <v>187.1</v>
+        <v>198</v>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F27" t="n">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G27" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D28" t="n">
-        <v>188</v>
+        <v>193.1</v>
       </c>
       <c r="E28" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F28" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G28" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>80</v>
+      </c>
+      <c r="D29" t="n">
+        <v>194</v>
+      </c>
+      <c r="E29" t="n">
+        <v>98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>157</v>
+      </c>
+      <c r="G29" t="n">
+        <v>124</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,621 +6049,639 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0030084411613191</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00356586049321294</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00314273877348392</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341867429701612</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00327395835987687</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00283135015866922</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00357672306807958</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00298392435482247</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00338017884449535</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00318485489799563</v>
-      </c>
-      <c r="H4"/>
+        <v>0.00332243181798927</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00271304032556223</v>
+        <v>0.00292956966881301</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00360608100622228</v>
+        <v>0.00368163047915431</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00288079480640253</v>
+        <v>0.00308653819727413</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00333719270715745</v>
+        <v>0.00348235414058596</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00308485012934244</v>
+        <v>0.00328733542529445</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00258600698649188</v>
+        <v>0.00281125011552619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003564609763333</v>
+        <v>0.00371134188927891</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00278992895730595</v>
+        <v>0.00298267835666458</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00327540648042577</v>
+        <v>0.00344167492438951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00300319536775998</v>
+        <v>0.00318850890327553</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00250887045587415</v>
+        <v>0.0026796825330385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00353754532696095</v>
+        <v>0.00367126932701861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00269116708152867</v>
+        <v>0.00289052694953377</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00323326080995795</v>
+        <v>0.00339857208193444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00292343877600335</v>
+        <v>0.00310767491030196</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00237945078068852</v>
+        <v>0.00260965574237228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00350445580744645</v>
+        <v>0.00364905375815714</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00260548829780709</v>
+        <v>0.00280109934392685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00314792679018169</v>
+        <v>0.0033431467219172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00285853571656711</v>
+        <v>0.00302947151280288</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00232322557812522</v>
+        <v>0.0024689750299527</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352601290330078</v>
+        <v>0.00364040497225221</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0025252285518551</v>
+        <v>0.00270746659748799</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00312412595038277</v>
+        <v>0.00326532963803602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00280387321015863</v>
+        <v>0.00296835788712759</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00222831877096942</v>
+        <v>0.00242074347481144</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00348143432480875</v>
+        <v>0.00363584382535121</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00247038323193485</v>
+        <v>0.00262353622282723</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00308220222057864</v>
+        <v>0.00324497329374696</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00274114748743405</v>
+        <v>0.00291465867956359</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00216662467529262</v>
+        <v>0.00232513863848582</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00345579644314313</v>
+        <v>0.00357619217894926</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00240812677163778</v>
+        <v>0.00257117192996654</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00302177664487998</v>
+        <v>0.00319516264468738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00267378359429676</v>
+        <v>0.00285442453831378</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0021033596063306</v>
+        <v>0.00226377897689898</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00343213137629115</v>
+        <v>0.00357723410191779</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00235730333918273</v>
+        <v>0.00251151378081614</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00297557687313926</v>
+        <v>0.00313877830477833</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00261852829708379</v>
+        <v>0.00278056018814313</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00203668490085245</v>
+        <v>0.00218979781453004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00335171390357315</v>
+        <v>0.00353966703414002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00229220473065824</v>
+        <v>0.00246497664670947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00293831523873415</v>
+        <v>0.00307993157473259</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00254697121877586</v>
+        <v>0.00271966216925753</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00196746188552636</v>
+        <v>0.002136697894967</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00332896365670115</v>
+        <v>0.00349117649235871</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00221208511278574</v>
+        <v>0.00238602237524501</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00289471063871429</v>
+        <v>0.0030484089804885</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00249900877918097</v>
+        <v>0.002654494350272</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00190979152849838</v>
+        <v>0.00205451390521352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00332100575327023</v>
+        <v>0.00346345928101954</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00215428901099065</v>
+        <v>0.0023114518621999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00282461250690995</v>
+        <v>0.00300096824389527</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00243880642933283</v>
+        <v>0.00260793903939652</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0018727629921014</v>
+        <v>0.0019929808296014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00327854686354528</v>
+        <v>0.00344801639275588</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00208968986646918</v>
+        <v>0.00225054086879193</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00279632994647152</v>
+        <v>0.00293710879199118</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00241066093244373</v>
+        <v>0.00254446700991684</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00179596203358337</v>
+        <v>0.00196604795212808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00325402450507784</v>
+        <v>0.00340273038903229</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00202372883381468</v>
+        <v>0.00218524598054286</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00276751070453547</v>
+        <v>0.00291480181741803</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00234286466366869</v>
+        <v>0.00250587577190529</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00173963948917947</v>
+        <v>0.00187371955324016</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00319360608970088</v>
+        <v>0.00338701324066141</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00196726738492684</v>
+        <v>0.00211581505015029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00272775510381636</v>
+        <v>0.00287890777452041</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00229716521803453</v>
+        <v>0.00244447234951853</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0016636155514056</v>
+        <v>0.00181591589004534</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00317072667591979</v>
+        <v>0.0033155120642822</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00191606222113576</v>
+        <v>0.00206171413965818</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00269040006313188</v>
+        <v>0.00284144829068814</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00225876695772385</v>
+        <v>0.00238968099991172</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162628815996145</v>
+        <v>0.00174346886916469</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00312785570158532</v>
+        <v>0.00329491055598169</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00186299188530003</v>
+        <v>0.0020053020253317</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00263675499307028</v>
+        <v>0.00278822970851026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00220721155098687</v>
+        <v>0.00235659175096498</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0015881098647485</v>
+        <v>0.00170726405124067</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00307062859256337</v>
+        <v>0.00326953249993936</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00182034080411173</v>
+        <v>0.00195185584244458</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0025933563777323</v>
+        <v>0.00274180240557891</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00216432827087571</v>
+        <v>0.00230287145623168</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00154677710080761</v>
+        <v>0.00166144995774434</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00302888327151171</v>
+        <v>0.00318991400172636</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00177037814850934</v>
+        <v>0.00191089398657606</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00257040570439386</v>
+        <v>0.00269352809750625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00214238470708911</v>
+        <v>0.00227352229129426</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00150026245999726</v>
+        <v>0.00161910841959875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0030056060261126</v>
+        <v>0.00315140075054931</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00171624705178693</v>
+        <v>0.00185969955496693</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00251293974853696</v>
+        <v>0.00268223189599837</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00209676361914783</v>
+        <v>0.002235362303758</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00144010850610648</v>
+        <v>0.00157861175168998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00293716330461033</v>
+        <v>0.00313688827177112</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00167881972474964</v>
+        <v>0.00180630898795991</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00248842349825792</v>
+        <v>0.00261848653440697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00205208447492843</v>
+        <v>0.00219940168516556</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0014100838054274</v>
+        <v>0.00151640683685324</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00288778512930506</v>
+        <v>0.0030660888783161</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00163619187534347</v>
+        <v>0.00176507023138738</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00244579264287491</v>
+        <v>0.00258990043126576</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00201239781551652</v>
+        <v>0.00214551835653537</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00135523226912682</v>
+        <v>0.0014753924389188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00289789186657517</v>
+        <v>0.00300623991870833</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00160706919039375</v>
+        <v>0.00171401542832448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0023909729815185</v>
+        <v>0.0025456912222594</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00195926886892398</v>
+        <v>0.00209805980588257</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00132066904673335</v>
+        <v>0.00142336712185317</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00283931874161485</v>
+        <v>0.00302212374924709</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00157646611800258</v>
+        <v>0.00168164043473039</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00235000797772633</v>
+        <v>0.00248976977135506</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00191921881722291</v>
+        <v>0.00204752723629447</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00127040499818372</v>
+        <v>0.00138869498107205</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00277003964670912</v>
+        <v>0.00295587794762416</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00152225963193151</v>
+        <v>0.00165165625111217</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00231535153553231</v>
+        <v>0.00246365408188881</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00187315159744467</v>
+        <v>0.00200454042496776</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00133264625256824</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00289337862214959</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00159936329854175</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00241718800641991</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00195952932308623</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,621 +6736,639 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>9601</v>
+        <v>7658</v>
       </c>
       <c r="D3" t="n">
-        <v>9620</v>
+        <v>7658</v>
       </c>
       <c r="E3" t="n">
-        <v>9605</v>
+        <v>7658</v>
       </c>
       <c r="F3" t="n">
-        <v>9615</v>
+        <v>7658</v>
       </c>
       <c r="G3" t="n">
-        <v>9610</v>
+        <v>7658</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="n">
-        <v>9671</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9710</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9700</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>9689</v>
-      </c>
-      <c r="H4"/>
+        <v>10387.91978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>9741</v>
+        <v>9635</v>
       </c>
       <c r="D5" t="n">
-        <v>9802</v>
+        <v>9657</v>
       </c>
       <c r="E5" t="n">
-        <v>9754</v>
+        <v>9640</v>
       </c>
       <c r="F5" t="n">
-        <v>9787</v>
+        <v>9651</v>
       </c>
       <c r="G5" t="n">
-        <v>9770</v>
+        <v>9645</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>9810</v>
+        <v>9703</v>
       </c>
       <c r="D6" t="n">
-        <v>9895</v>
+        <v>9748</v>
       </c>
       <c r="E6" t="n">
-        <v>9830</v>
+        <v>9714</v>
       </c>
       <c r="F6" t="n">
-        <v>9876</v>
+        <v>9737</v>
       </c>
       <c r="G6" t="n">
-        <v>9852</v>
+        <v>9725</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>9879</v>
+        <v>9770</v>
       </c>
       <c r="D7" t="n">
-        <v>9993</v>
+        <v>9841</v>
       </c>
       <c r="E7" t="n">
-        <v>9906</v>
+        <v>9787</v>
       </c>
       <c r="F7" t="n">
-        <v>9964.25</v>
+        <v>9824</v>
       </c>
       <c r="G7" t="n">
-        <v>9935</v>
+        <v>9805</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>9948</v>
+        <v>9837</v>
       </c>
       <c r="D8" t="n">
-        <v>10091.1</v>
+        <v>9937</v>
       </c>
       <c r="E8" t="n">
-        <v>9983</v>
+        <v>9862</v>
       </c>
       <c r="F8" t="n">
-        <v>10055</v>
+        <v>9913</v>
       </c>
       <c r="G8" t="n">
-        <v>10019.5</v>
+        <v>9888</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>10015.9</v>
+        <v>9905</v>
       </c>
       <c r="D9" t="n">
-        <v>10193</v>
+        <v>10033.1</v>
       </c>
       <c r="E9" t="n">
-        <v>10059</v>
+        <v>9938</v>
       </c>
       <c r="F9" t="n">
-        <v>10148</v>
+        <v>10002</v>
       </c>
       <c r="G9" t="n">
-        <v>10104</v>
+        <v>9971</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>10086</v>
+        <v>9973</v>
       </c>
       <c r="D10" t="n">
-        <v>10295</v>
+        <v>10133.1</v>
       </c>
       <c r="E10" t="n">
-        <v>10137</v>
+        <v>10013</v>
       </c>
       <c r="F10" t="n">
-        <v>10242</v>
+        <v>10093</v>
       </c>
       <c r="G10" t="n">
-        <v>10190</v>
+        <v>10053</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>10155.9</v>
+        <v>10042</v>
       </c>
       <c r="D11" t="n">
-        <v>10402</v>
+        <v>10234</v>
       </c>
       <c r="E11" t="n">
-        <v>10214.75</v>
+        <v>10088</v>
       </c>
       <c r="F11" t="n">
-        <v>10339</v>
+        <v>10185</v>
       </c>
       <c r="G11" t="n">
-        <v>10277.5</v>
+        <v>10138</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>10225.9</v>
+        <v>10108</v>
       </c>
       <c r="D12" t="n">
-        <v>10510</v>
+        <v>10337</v>
       </c>
       <c r="E12" t="n">
-        <v>10295</v>
+        <v>10163</v>
       </c>
       <c r="F12" t="n">
-        <v>10438.25</v>
+        <v>10280.25</v>
       </c>
       <c r="G12" t="n">
-        <v>10369</v>
+        <v>10225.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>10296</v>
+        <v>10179</v>
       </c>
       <c r="D13" t="n">
-        <v>10619</v>
+        <v>10441.1</v>
       </c>
       <c r="E13" t="n">
-        <v>10378</v>
+        <v>10241</v>
       </c>
       <c r="F13" t="n">
-        <v>10537.25</v>
+        <v>10378.25</v>
       </c>
       <c r="G13" t="n">
-        <v>10459</v>
+        <v>10314</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>10372.9</v>
+        <v>10249</v>
       </c>
       <c r="D14" t="n">
-        <v>10733.1</v>
+        <v>10553.1</v>
       </c>
       <c r="E14" t="n">
-        <v>10457.75</v>
+        <v>10321</v>
       </c>
       <c r="F14" t="n">
-        <v>10640</v>
+        <v>10476.25</v>
       </c>
       <c r="G14" t="n">
-        <v>10550.5</v>
+        <v>10402</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>10445.9</v>
+        <v>10321.7</v>
       </c>
       <c r="D15" t="n">
-        <v>10853</v>
+        <v>10667</v>
       </c>
       <c r="E15" t="n">
-        <v>10541</v>
+        <v>10400</v>
       </c>
       <c r="F15" t="n">
-        <v>10748</v>
+        <v>10578.25</v>
       </c>
       <c r="G15" t="n">
-        <v>10646</v>
+        <v>10493</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>10519.9</v>
+        <v>10395.9</v>
       </c>
       <c r="D16" t="n">
-        <v>10971</v>
+        <v>10780.2</v>
       </c>
       <c r="E16" t="n">
-        <v>10625</v>
+        <v>10484.75</v>
       </c>
       <c r="F16" t="n">
-        <v>10857</v>
+        <v>10682.25</v>
       </c>
       <c r="G16" t="n">
-        <v>10743</v>
+        <v>10586.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>10596.9</v>
+        <v>10464.9</v>
       </c>
       <c r="D17" t="n">
-        <v>11089.2</v>
+        <v>10896.2</v>
       </c>
       <c r="E17" t="n">
-        <v>10710</v>
+        <v>10567.75</v>
       </c>
       <c r="F17" t="n">
-        <v>10968</v>
+        <v>10790</v>
       </c>
       <c r="G17" t="n">
-        <v>10837</v>
+        <v>10681.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>10671</v>
+        <v>10544.6</v>
       </c>
       <c r="D18" t="n">
-        <v>11214</v>
+        <v>11016.2</v>
       </c>
       <c r="E18" t="n">
-        <v>10796</v>
+        <v>10649.75</v>
       </c>
       <c r="F18" t="n">
-        <v>11078</v>
+        <v>10902</v>
       </c>
       <c r="G18" t="n">
-        <v>10933.5</v>
+        <v>10775</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>10747.9</v>
+        <v>10616.9</v>
       </c>
       <c r="D19" t="n">
-        <v>11338</v>
+        <v>11139.1</v>
       </c>
       <c r="E19" t="n">
-        <v>10884</v>
+        <v>10733.75</v>
       </c>
       <c r="F19" t="n">
-        <v>11194</v>
+        <v>11012.25</v>
       </c>
       <c r="G19" t="n">
-        <v>11033</v>
+        <v>10869.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>10822.9</v>
+        <v>10691</v>
       </c>
       <c r="D20" t="n">
-        <v>11460</v>
+        <v>11260.1</v>
       </c>
       <c r="E20" t="n">
-        <v>10978</v>
+        <v>10821.75</v>
       </c>
       <c r="F20" t="n">
-        <v>11309.25</v>
+        <v>11124</v>
       </c>
       <c r="G20" t="n">
-        <v>11136.5</v>
+        <v>10967</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>10900.9</v>
+        <v>10765</v>
       </c>
       <c r="D21" t="n">
-        <v>11589</v>
+        <v>11382.1</v>
       </c>
       <c r="E21" t="n">
-        <v>11069.75</v>
+        <v>10915</v>
       </c>
       <c r="F21" t="n">
-        <v>11430</v>
+        <v>11236.25</v>
       </c>
       <c r="G21" t="n">
-        <v>11240.5</v>
+        <v>11067</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>10975.9</v>
+        <v>10842.9</v>
       </c>
       <c r="D22" t="n">
-        <v>11720.1</v>
+        <v>11509</v>
       </c>
       <c r="E22" t="n">
-        <v>11162.75</v>
+        <v>11002.75</v>
       </c>
       <c r="F22" t="n">
-        <v>11553.25</v>
+        <v>11357</v>
       </c>
       <c r="G22" t="n">
-        <v>11347.5</v>
+        <v>11173</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>11062.5</v>
+        <v>10920.7</v>
       </c>
       <c r="D23" t="n">
-        <v>11852.3</v>
+        <v>11638.5</v>
       </c>
       <c r="E23" t="n">
-        <v>11250</v>
+        <v>11095</v>
       </c>
       <c r="F23" t="n">
-        <v>11676</v>
+        <v>11483</v>
       </c>
       <c r="G23" t="n">
-        <v>11459</v>
+        <v>11278</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>11145</v>
+        <v>11004.9</v>
       </c>
       <c r="D24" t="n">
-        <v>11987.3</v>
+        <v>11771.1</v>
       </c>
       <c r="E24" t="n">
-        <v>11346.75</v>
+        <v>11188</v>
       </c>
       <c r="F24" t="n">
-        <v>11802.25</v>
+        <v>11596.25</v>
       </c>
       <c r="G24" t="n">
-        <v>11566.5</v>
+        <v>11387.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>11223.9</v>
+        <v>11081.8</v>
       </c>
       <c r="D25" t="n">
-        <v>12122.1</v>
+        <v>11904.1</v>
       </c>
       <c r="E25" t="n">
-        <v>11445.75</v>
+        <v>11281.5</v>
       </c>
       <c r="F25" t="n">
-        <v>11926</v>
+        <v>11724.75</v>
       </c>
       <c r="G25" t="n">
-        <v>11679.5</v>
+        <v>11496.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>11307.8</v>
+        <v>11165.8</v>
       </c>
       <c r="D26" t="n">
-        <v>12265.1</v>
+        <v>12036.1</v>
       </c>
       <c r="E26" t="n">
-        <v>11547.5</v>
+        <v>11378.75</v>
       </c>
       <c r="F26" t="n">
-        <v>12049.25</v>
+        <v>11848.25</v>
       </c>
       <c r="G26" t="n">
-        <v>11796.5</v>
+        <v>11609</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="n">
-        <v>11395.9</v>
+        <v>11250.9</v>
       </c>
       <c r="D27" t="n">
-        <v>12407</v>
+        <v>12177.1</v>
       </c>
       <c r="E27" t="n">
-        <v>11642</v>
+        <v>11480.75</v>
       </c>
       <c r="F27" t="n">
-        <v>12175</v>
+        <v>11969.75</v>
       </c>
       <c r="G27" t="n">
-        <v>11910.5</v>
+        <v>11725.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>11480.9</v>
+        <v>11333.9</v>
       </c>
       <c r="D28" t="n">
-        <v>12546.2</v>
+        <v>12317</v>
       </c>
       <c r="E28" t="n">
-        <v>11747</v>
+        <v>11571</v>
       </c>
       <c r="F28" t="n">
-        <v>12300</v>
+        <v>12093</v>
       </c>
       <c r="G28" t="n">
-        <v>12029</v>
+        <v>11840</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11416.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>12459</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11675.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12221</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11956.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
